--- a/script/summary_banding/summary_full_endpoint_125_600k.xlsx
+++ b/script/summary_banding/summary_full_endpoint_125_600k.xlsx
@@ -76,604 +76,604 @@
     <t>full_endpoint_125_600k</t>
   </si>
   <si>
-    <t>2023-06-17 22:48:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 22:49:37 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 22:51:11 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 22:52:44 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 22:54:17 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 22:55:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 22:57:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 22:58:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:00:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:02:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:03:38 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:05:11 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:06:46 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:08:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:09:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:11:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:13:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:14:35 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:16:09 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:17:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:19:17 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:20:51 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:22:25 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:23:59 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:25:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:27:07 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:28:40 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:30:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:31:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:33:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:34:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:36:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:38:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:39:35 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:41:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:42:41 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:44:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:45:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:47:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:48:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:50:31 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:52:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:53:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:55:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:56:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:58:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-17 23:59:55 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:01:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:03:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:04:40 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:06:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:07:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:09:25 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:11:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:12:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:14:11 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:15:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:17:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:18:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:20:32 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:22:07 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:23:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:25:17 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:26:52 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:28:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:30:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:41:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:43:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:44:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:46:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:48:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 00:49:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:01:12 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:02:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:04:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:05:59 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:07:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:09:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:10:44 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:12:19 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:13:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:15:29 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:17:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:28:38 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:30:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:31:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:33:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:34:58 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:36:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:38:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:39:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:41:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:43:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:44:41 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:46:17 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:47:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 01:59:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 02:01:11 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 02:12:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-18 02:14:23 WIB</t>
-  </si>
-  <si>
-    <t>1687016883</t>
-  </si>
-  <si>
-    <t>1687016977</t>
-  </si>
-  <si>
-    <t>1687017071</t>
-  </si>
-  <si>
-    <t>1687017164</t>
-  </si>
-  <si>
-    <t>1687017257</t>
-  </si>
-  <si>
-    <t>1687017350</t>
-  </si>
-  <si>
-    <t>1687017443</t>
-  </si>
-  <si>
-    <t>1687017537</t>
-  </si>
-  <si>
-    <t>1687017630</t>
-  </si>
-  <si>
-    <t>1687017724</t>
-  </si>
-  <si>
-    <t>1687017818</t>
-  </si>
-  <si>
-    <t>1687017911</t>
-  </si>
-  <si>
-    <t>1687018006</t>
-  </si>
-  <si>
-    <t>1687018100</t>
-  </si>
-  <si>
-    <t>1687018193</t>
-  </si>
-  <si>
-    <t>1687018287</t>
-  </si>
-  <si>
-    <t>1687018381</t>
-  </si>
-  <si>
-    <t>1687018475</t>
-  </si>
-  <si>
-    <t>1687018569</t>
-  </si>
-  <si>
-    <t>1687018663</t>
-  </si>
-  <si>
-    <t>1687018757</t>
-  </si>
-  <si>
-    <t>1687018851</t>
-  </si>
-  <si>
-    <t>1687018945</t>
-  </si>
-  <si>
-    <t>1687019039</t>
-  </si>
-  <si>
-    <t>1687019133</t>
-  </si>
-  <si>
-    <t>1687019227</t>
-  </si>
-  <si>
-    <t>1687019320</t>
-  </si>
-  <si>
-    <t>1687019413</t>
-  </si>
-  <si>
-    <t>1687019507</t>
-  </si>
-  <si>
-    <t>1687019600</t>
-  </si>
-  <si>
-    <t>1687019693</t>
-  </si>
-  <si>
-    <t>1687019787</t>
-  </si>
-  <si>
-    <t>1687019881</t>
-  </si>
-  <si>
-    <t>1687019975</t>
-  </si>
-  <si>
-    <t>1687020068</t>
-  </si>
-  <si>
-    <t>1687020161</t>
-  </si>
-  <si>
-    <t>1687020255</t>
-  </si>
-  <si>
-    <t>1687020349</t>
-  </si>
-  <si>
-    <t>1687020443</t>
-  </si>
-  <si>
-    <t>1687020537</t>
-  </si>
-  <si>
-    <t>1687020631</t>
-  </si>
-  <si>
-    <t>1687020725</t>
-  </si>
-  <si>
-    <t>1687020819</t>
-  </si>
-  <si>
-    <t>1687020913</t>
-  </si>
-  <si>
-    <t>1687021007</t>
-  </si>
-  <si>
-    <t>1687021101</t>
-  </si>
-  <si>
-    <t>1687021195</t>
-  </si>
-  <si>
-    <t>1687021290</t>
-  </si>
-  <si>
-    <t>1687021385</t>
-  </si>
-  <si>
-    <t>1687021480</t>
-  </si>
-  <si>
-    <t>1687021575</t>
-  </si>
-  <si>
-    <t>1687021670</t>
-  </si>
-  <si>
-    <t>1687021765</t>
-  </si>
-  <si>
-    <t>1687021860</t>
-  </si>
-  <si>
-    <t>1687021956</t>
-  </si>
-  <si>
-    <t>1687022051</t>
-  </si>
-  <si>
-    <t>1687022147</t>
-  </si>
-  <si>
-    <t>1687022242</t>
-  </si>
-  <si>
-    <t>1687022337</t>
-  </si>
-  <si>
-    <t>1687022432</t>
-  </si>
-  <si>
-    <t>1687022527</t>
-  </si>
-  <si>
-    <t>1687022622</t>
-  </si>
-  <si>
-    <t>1687022717</t>
-  </si>
-  <si>
-    <t>1687022812</t>
-  </si>
-  <si>
-    <t>1687022907</t>
-  </si>
-  <si>
-    <t>1687023003</t>
-  </si>
-  <si>
-    <t>1687023699</t>
-  </si>
-  <si>
-    <t>1687023794</t>
-  </si>
-  <si>
-    <t>1687023889</t>
-  </si>
-  <si>
-    <t>1687023984</t>
-  </si>
-  <si>
-    <t>1687024080</t>
-  </si>
-  <si>
-    <t>1687024176</t>
-  </si>
-  <si>
-    <t>1687024872</t>
-  </si>
-  <si>
-    <t>1687024968</t>
-  </si>
-  <si>
-    <t>1687025063</t>
-  </si>
-  <si>
-    <t>1687025159</t>
-  </si>
-  <si>
-    <t>1687025254</t>
-  </si>
-  <si>
-    <t>1687025348</t>
-  </si>
-  <si>
-    <t>1687025444</t>
-  </si>
-  <si>
-    <t>1687025539</t>
-  </si>
-  <si>
-    <t>1687025634</t>
-  </si>
-  <si>
-    <t>1687025729</t>
-  </si>
-  <si>
-    <t>1687025824</t>
-  </si>
-  <si>
-    <t>1687026518</t>
-  </si>
-  <si>
-    <t>1687026613</t>
-  </si>
-  <si>
-    <t>1687026708</t>
-  </si>
-  <si>
-    <t>1687026803</t>
-  </si>
-  <si>
-    <t>1687026898</t>
-  </si>
-  <si>
-    <t>1687026994</t>
-  </si>
-  <si>
-    <t>1687027090</t>
-  </si>
-  <si>
-    <t>1687027190</t>
-  </si>
-  <si>
-    <t>1687027287</t>
-  </si>
-  <si>
-    <t>1687027384</t>
-  </si>
-  <si>
-    <t>1687027481</t>
-  </si>
-  <si>
-    <t>1687027577</t>
-  </si>
-  <si>
-    <t>1687027673</t>
-  </si>
-  <si>
-    <t>1687028370</t>
-  </si>
-  <si>
-    <t>1687028471</t>
-  </si>
-  <si>
-    <t>1687029167</t>
-  </si>
-  <si>
-    <t>1687029263</t>
+    <t>2023-06-22 12:50:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 12:52:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 12:53:44 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 12:55:17 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 12:56:50 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 12:58:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 12:59:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:01:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:03:05 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:04:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:06:13 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:07:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:09:20 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:10:54 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:12:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:14:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:15:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:17:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:18:44 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:20:17 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:21:51 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:23:25 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:24:59 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:26:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:28:07 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:29:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:31:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:32:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:34:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:35:54 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:37:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:39:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:40:34 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:42:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:53:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:55:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:56:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:58:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 13:59:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:01:29 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:03:02 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:04:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:06:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:07:44 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:09:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:10:52 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:12:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:13:59 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:15:32 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:17:07 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:18:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:20:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:21:51 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:23:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:25:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:26:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:28:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:29:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:31:20 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:32:56 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:34:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:36:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:37:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:39:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:40:51 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:42:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:44:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:55:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:57:13 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 14:58:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:00:24 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:01:59 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:03:34 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:05:09 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:16:44 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:18:19 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:19:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:21:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:23:02 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:24:38 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:26:13 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:27:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:29:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:30:56 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:32:32 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:34:07 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:45:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:47:19 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:48:54 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:50:29 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:52:04 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:53:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:55:13 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 16:06:50 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 16:08:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 16:10:02 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 16:11:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 16:13:13 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 16:14:59 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-22 16:16:35 WIB</t>
+  </si>
+  <si>
+    <t>1687413036</t>
+  </si>
+  <si>
+    <t>1687413130</t>
+  </si>
+  <si>
+    <t>1687413224</t>
+  </si>
+  <si>
+    <t>1687413317</t>
+  </si>
+  <si>
+    <t>1687413410</t>
+  </si>
+  <si>
+    <t>1687413503</t>
+  </si>
+  <si>
+    <t>1687413597</t>
+  </si>
+  <si>
+    <t>1687413691</t>
+  </si>
+  <si>
+    <t>1687413785</t>
+  </si>
+  <si>
+    <t>1687413879</t>
+  </si>
+  <si>
+    <t>1687413973</t>
+  </si>
+  <si>
+    <t>1687414067</t>
+  </si>
+  <si>
+    <t>1687414160</t>
+  </si>
+  <si>
+    <t>1687414254</t>
+  </si>
+  <si>
+    <t>1687414347</t>
+  </si>
+  <si>
+    <t>1687414441</t>
+  </si>
+  <si>
+    <t>1687414536</t>
+  </si>
+  <si>
+    <t>1687414630</t>
+  </si>
+  <si>
+    <t>1687414724</t>
+  </si>
+  <si>
+    <t>1687414817</t>
+  </si>
+  <si>
+    <t>1687414911</t>
+  </si>
+  <si>
+    <t>1687415005</t>
+  </si>
+  <si>
+    <t>1687415099</t>
+  </si>
+  <si>
+    <t>1687415193</t>
+  </si>
+  <si>
+    <t>1687415287</t>
+  </si>
+  <si>
+    <t>1687415381</t>
+  </si>
+  <si>
+    <t>1687415475</t>
+  </si>
+  <si>
+    <t>1687415568</t>
+  </si>
+  <si>
+    <t>1687415661</t>
+  </si>
+  <si>
+    <t>1687415754</t>
+  </si>
+  <si>
+    <t>1687415847</t>
+  </si>
+  <si>
+    <t>1687415940</t>
+  </si>
+  <si>
+    <t>1687416034</t>
+  </si>
+  <si>
+    <t>1687416128</t>
+  </si>
+  <si>
+    <t>1687416822</t>
+  </si>
+  <si>
+    <t>1687416915</t>
+  </si>
+  <si>
+    <t>1687417008</t>
+  </si>
+  <si>
+    <t>1687417102</t>
+  </si>
+  <si>
+    <t>1687417195</t>
+  </si>
+  <si>
+    <t>1687417289</t>
+  </si>
+  <si>
+    <t>1687417382</t>
+  </si>
+  <si>
+    <t>1687417476</t>
+  </si>
+  <si>
+    <t>1687417570</t>
+  </si>
+  <si>
+    <t>1687417664</t>
+  </si>
+  <si>
+    <t>1687417758</t>
+  </si>
+  <si>
+    <t>1687417852</t>
+  </si>
+  <si>
+    <t>1687417946</t>
+  </si>
+  <si>
+    <t>1687418039</t>
+  </si>
+  <si>
+    <t>1687418132</t>
+  </si>
+  <si>
+    <t>1687418227</t>
+  </si>
+  <si>
+    <t>1687418321</t>
+  </si>
+  <si>
+    <t>1687418416</t>
+  </si>
+  <si>
+    <t>1687418511</t>
+  </si>
+  <si>
+    <t>1687418606</t>
+  </si>
+  <si>
+    <t>1687418700</t>
+  </si>
+  <si>
+    <t>1687418795</t>
+  </si>
+  <si>
+    <t>1687418890</t>
+  </si>
+  <si>
+    <t>1687418985</t>
+  </si>
+  <si>
+    <t>1687419080</t>
+  </si>
+  <si>
+    <t>1687419176</t>
+  </si>
+  <si>
+    <t>1687419271</t>
+  </si>
+  <si>
+    <t>1687419366</t>
+  </si>
+  <si>
+    <t>1687419461</t>
+  </si>
+  <si>
+    <t>1687419556</t>
+  </si>
+  <si>
+    <t>1687419651</t>
+  </si>
+  <si>
+    <t>1687419746</t>
+  </si>
+  <si>
+    <t>1687419841</t>
+  </si>
+  <si>
+    <t>1687420537</t>
+  </si>
+  <si>
+    <t>1687420633</t>
+  </si>
+  <si>
+    <t>1687420729</t>
+  </si>
+  <si>
+    <t>1687420824</t>
+  </si>
+  <si>
+    <t>1687420919</t>
+  </si>
+  <si>
+    <t>1687421014</t>
+  </si>
+  <si>
+    <t>1687421109</t>
+  </si>
+  <si>
+    <t>1687421804</t>
+  </si>
+  <si>
+    <t>1687421899</t>
+  </si>
+  <si>
+    <t>1687421993</t>
+  </si>
+  <si>
+    <t>1687422088</t>
+  </si>
+  <si>
+    <t>1687422182</t>
+  </si>
+  <si>
+    <t>1687422278</t>
+  </si>
+  <si>
+    <t>1687422373</t>
+  </si>
+  <si>
+    <t>1687422467</t>
+  </si>
+  <si>
+    <t>1687422561</t>
+  </si>
+  <si>
+    <t>1687422656</t>
+  </si>
+  <si>
+    <t>1687422752</t>
+  </si>
+  <si>
+    <t>1687422847</t>
+  </si>
+  <si>
+    <t>1687423543</t>
+  </si>
+  <si>
+    <t>1687423639</t>
+  </si>
+  <si>
+    <t>1687423734</t>
+  </si>
+  <si>
+    <t>1687423829</t>
+  </si>
+  <si>
+    <t>1687423924</t>
+  </si>
+  <si>
+    <t>1687424019</t>
+  </si>
+  <si>
+    <t>1687424113</t>
+  </si>
+  <si>
+    <t>1687424810</t>
+  </si>
+  <si>
+    <t>1687424906</t>
+  </si>
+  <si>
+    <t>1687425002</t>
+  </si>
+  <si>
+    <t>1687425097</t>
+  </si>
+  <si>
+    <t>1687425193</t>
+  </si>
+  <si>
+    <t>1687425299</t>
+  </si>
+  <si>
+    <t>1687425395</t>
   </si>
   <si>
     <t>GET /node/</t>
@@ -1160,40 +1160,40 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>12408</v>
+        <v>12062</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
       <c r="J2">
-        <v>59.66</v>
+        <v>59.11</v>
       </c>
       <c r="K2">
-        <v>671.17</v>
+        <v>652.45</v>
       </c>
       <c r="L2">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="M2">
-        <v>207.98</v>
+        <v>204.06</v>
       </c>
       <c r="N2">
-        <v>11.25</v>
+        <v>11.04</v>
       </c>
       <c r="O2">
-        <v>197.86</v>
+        <v>197.5</v>
       </c>
       <c r="P2">
-        <v>12408</v>
+        <v>12062</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>2.63</v>
+        <v>3.04</v>
       </c>
       <c r="S2">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1219,40 +1219,40 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>12346</v>
+        <v>12046</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>59.3</v>
+        <v>59.43</v>
       </c>
       <c r="K3">
-        <v>667.8099999999999</v>
+        <v>651.59</v>
       </c>
       <c r="L3">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="M3">
-        <v>208.2</v>
+        <v>202.69</v>
       </c>
       <c r="N3">
-        <v>11.26</v>
+        <v>10.96</v>
       </c>
       <c r="O3">
-        <v>198.94</v>
+        <v>197.29</v>
       </c>
       <c r="P3">
-        <v>12346</v>
+        <v>12046</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>3.09</v>
+        <v>2.5</v>
       </c>
       <c r="S3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1278,40 +1278,40 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>12582</v>
+        <v>12223</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
-        <v>59.9</v>
+        <v>59.95</v>
       </c>
       <c r="K4">
-        <v>680.58</v>
+        <v>661.16</v>
       </c>
       <c r="L4">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="M4">
-        <v>210.05</v>
+        <v>203.89</v>
       </c>
       <c r="N4">
-        <v>11.36</v>
+        <v>11.03</v>
       </c>
       <c r="O4">
-        <v>198.66</v>
+        <v>197.79</v>
       </c>
       <c r="P4">
-        <v>12582</v>
+        <v>12223</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="S4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1337,37 +1337,37 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>12237</v>
+        <v>12244</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>59.32</v>
+        <v>59.01</v>
       </c>
       <c r="K5">
-        <v>661.92</v>
+        <v>662.3</v>
       </c>
       <c r="L5">
         <v>0.96</v>
       </c>
       <c r="M5">
-        <v>206.29</v>
+        <v>207.49</v>
       </c>
       <c r="N5">
-        <v>11.16</v>
+        <v>11.22</v>
       </c>
       <c r="O5">
-        <v>198.38</v>
+        <v>198.45</v>
       </c>
       <c r="P5">
-        <v>12237</v>
+        <v>12244</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>2.35</v>
+        <v>2.74</v>
       </c>
       <c r="S5">
         <v>0.03</v>
@@ -1396,37 +1396,37 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>12314</v>
+        <v>11843</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
-        <v>59.24</v>
+        <v>59.21</v>
       </c>
       <c r="K6">
-        <v>666.08</v>
+        <v>640.61</v>
       </c>
       <c r="L6">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="M6">
-        <v>207.87</v>
+        <v>200.02</v>
       </c>
       <c r="N6">
-        <v>11.24</v>
+        <v>10.82</v>
       </c>
       <c r="O6">
-        <v>198.16</v>
+        <v>197.56</v>
       </c>
       <c r="P6">
-        <v>12314</v>
+        <v>11843</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>2.72</v>
+        <v>3.33</v>
       </c>
       <c r="S6">
         <v>0.02</v>
@@ -1455,37 +1455,37 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>12450</v>
+        <v>12065</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7">
-        <v>59.17</v>
+        <v>59.1</v>
       </c>
       <c r="K7">
-        <v>673.4400000000001</v>
+        <v>652.61</v>
       </c>
       <c r="L7">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="M7">
-        <v>210.41</v>
+        <v>204.15</v>
       </c>
       <c r="N7">
-        <v>11.38</v>
+        <v>11.04</v>
       </c>
       <c r="O7">
-        <v>388.4</v>
+        <v>392.62</v>
       </c>
       <c r="P7">
-        <v>12450</v>
+        <v>12065</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>7.17</v>
+        <v>4.79</v>
       </c>
       <c r="S7">
         <v>0.04</v>
@@ -1514,37 +1514,37 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>12287</v>
+        <v>11721</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>59.27</v>
+        <v>59.61</v>
       </c>
       <c r="K8">
-        <v>664.62</v>
+        <v>634.01</v>
       </c>
       <c r="L8">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>207.31</v>
+        <v>196.63</v>
       </c>
       <c r="N8">
-        <v>11.21</v>
+        <v>10.64</v>
       </c>
       <c r="O8">
-        <v>392.68</v>
+        <v>392.89</v>
       </c>
       <c r="P8">
-        <v>12287</v>
+        <v>11721</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>4.71</v>
+        <v>5.92</v>
       </c>
       <c r="S8">
         <v>0.03</v>
@@ -1573,37 +1573,37 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>12335</v>
+        <v>12001</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>59.97</v>
+        <v>59.9</v>
       </c>
       <c r="K9">
-        <v>667.22</v>
+        <v>649.15</v>
       </c>
       <c r="L9">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="M9">
-        <v>205.69</v>
+        <v>200.35</v>
       </c>
       <c r="N9">
-        <v>11.13</v>
+        <v>10.84</v>
       </c>
       <c r="O9">
-        <v>388.62</v>
+        <v>391.12</v>
       </c>
       <c r="P9">
-        <v>12335</v>
+        <v>12001</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>4.48</v>
+        <v>5.55</v>
       </c>
       <c r="S9">
         <v>0.03</v>
@@ -1632,37 +1632,37 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>11472</v>
+        <v>12180</v>
       </c>
       <c r="I10">
         <v>100</v>
       </c>
       <c r="J10">
-        <v>59.02</v>
+        <v>59.82</v>
       </c>
       <c r="K10">
-        <v>620.54</v>
+        <v>658.83</v>
       </c>
       <c r="L10">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="M10">
-        <v>194.37</v>
+        <v>203.61</v>
       </c>
       <c r="N10">
-        <v>10.51</v>
+        <v>11.01</v>
       </c>
       <c r="O10">
-        <v>390.98</v>
+        <v>391.88</v>
       </c>
       <c r="P10">
-        <v>11472</v>
+        <v>12180</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>6.12</v>
+        <v>5.12</v>
       </c>
       <c r="S10">
         <v>0.04</v>
@@ -1691,40 +1691,40 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>12615</v>
+        <v>12154</v>
       </c>
       <c r="I11">
         <v>100</v>
       </c>
       <c r="J11">
-        <v>59.83</v>
+        <v>59.69</v>
       </c>
       <c r="K11">
-        <v>682.36</v>
+        <v>657.4299999999999</v>
       </c>
       <c r="L11">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="M11">
-        <v>210.85</v>
+        <v>203.62</v>
       </c>
       <c r="N11">
-        <v>11.41</v>
+        <v>11.01</v>
       </c>
       <c r="O11">
-        <v>390.12</v>
+        <v>387.98</v>
       </c>
       <c r="P11">
-        <v>12615</v>
+        <v>12154</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>4.36</v>
+        <v>4.92</v>
       </c>
       <c r="S11">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1750,40 +1750,40 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>12356</v>
+        <v>11760</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
-        <v>59.76</v>
+        <v>59.81</v>
       </c>
       <c r="K12">
-        <v>668.35</v>
+        <v>636.12</v>
       </c>
       <c r="L12">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="M12">
-        <v>206.76</v>
+        <v>196.62</v>
       </c>
       <c r="N12">
-        <v>11.18</v>
+        <v>10.64</v>
       </c>
       <c r="O12">
-        <v>580.71</v>
+        <v>580.1</v>
       </c>
       <c r="P12">
-        <v>12356</v>
+        <v>11760</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>8.710000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="S12">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1809,40 +1809,40 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>12371</v>
+        <v>11989</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>60.02</v>
+        <v>59.57</v>
       </c>
       <c r="K13">
-        <v>669.17</v>
+        <v>648.5</v>
       </c>
       <c r="L13">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="M13">
-        <v>206.11</v>
+        <v>201.26</v>
       </c>
       <c r="N13">
-        <v>11.15</v>
+        <v>10.89</v>
       </c>
       <c r="O13">
-        <v>581.65</v>
+        <v>574.51</v>
       </c>
       <c r="P13">
-        <v>12371</v>
+        <v>11989</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>8.050000000000001</v>
+        <v>6.83</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1868,40 +1868,40 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>12514</v>
+        <v>11642</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>59.69</v>
+        <v>59.06</v>
       </c>
       <c r="K14">
-        <v>676.9</v>
+        <v>629.73</v>
       </c>
       <c r="L14">
-        <v>2.74</v>
+        <v>2.95</v>
       </c>
       <c r="M14">
-        <v>209.65</v>
+        <v>197.12</v>
       </c>
       <c r="N14">
-        <v>11.34</v>
+        <v>10.66</v>
       </c>
       <c r="O14">
-        <v>575.46</v>
+        <v>581.66</v>
       </c>
       <c r="P14">
-        <v>12514</v>
+        <v>11642</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>7.93</v>
+        <v>10.42</v>
       </c>
       <c r="S14">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1927,40 +1927,40 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>12203</v>
+        <v>12015</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
-        <v>59.85</v>
+        <v>59.64</v>
       </c>
       <c r="K15">
-        <v>660.08</v>
+        <v>649.91</v>
       </c>
       <c r="L15">
-        <v>2.79</v>
+        <v>2.91</v>
       </c>
       <c r="M15">
-        <v>203.89</v>
+        <v>201.46</v>
       </c>
       <c r="N15">
-        <v>11.03</v>
+        <v>10.9</v>
       </c>
       <c r="O15">
-        <v>569.05</v>
+        <v>586.65</v>
       </c>
       <c r="P15">
-        <v>12203</v>
+        <v>12015</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>6.87</v>
+        <v>9.1</v>
       </c>
       <c r="S15">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1986,40 +1986,40 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>11911</v>
+        <v>11750</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16">
-        <v>59.26</v>
+        <v>59.18</v>
       </c>
       <c r="K16">
-        <v>644.28</v>
+        <v>635.5700000000001</v>
       </c>
       <c r="L16">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="M16">
-        <v>201</v>
+        <v>198.55</v>
       </c>
       <c r="N16">
-        <v>10.87</v>
+        <v>10.74</v>
       </c>
       <c r="O16">
-        <v>580.2</v>
+        <v>585.3099999999999</v>
       </c>
       <c r="P16">
-        <v>11911</v>
+        <v>11750</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>6.63</v>
+        <v>7.75</v>
       </c>
       <c r="S16">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2045,40 +2045,40 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>12474</v>
+        <v>12264</v>
       </c>
       <c r="I17">
         <v>100</v>
       </c>
       <c r="J17">
-        <v>59.92</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>674.74</v>
+        <v>663.38</v>
       </c>
       <c r="L17">
-        <v>3.69</v>
+        <v>3.76</v>
       </c>
       <c r="M17">
-        <v>208.18</v>
+        <v>204.4</v>
       </c>
       <c r="N17">
-        <v>11.26</v>
+        <v>11.06</v>
       </c>
       <c r="O17">
-        <v>768.29</v>
+        <v>768.63</v>
       </c>
       <c r="P17">
-        <v>12474</v>
+        <v>12264</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>8.73</v>
+        <v>13.55</v>
       </c>
       <c r="S17">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2104,40 +2104,40 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>12350</v>
+        <v>11888</v>
       </c>
       <c r="I18">
         <v>100</v>
       </c>
       <c r="J18">
-        <v>59.38</v>
+        <v>59.86</v>
       </c>
       <c r="K18">
-        <v>668.03</v>
+        <v>643.04</v>
       </c>
       <c r="L18">
-        <v>3.68</v>
+        <v>3.86</v>
       </c>
       <c r="M18">
-        <v>207.98</v>
+        <v>198.6</v>
       </c>
       <c r="N18">
-        <v>11.25</v>
+        <v>10.74</v>
       </c>
       <c r="O18">
-        <v>764.8</v>
+        <v>765.85</v>
       </c>
       <c r="P18">
-        <v>12350</v>
+        <v>11888</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>10.62</v>
+        <v>9.58</v>
       </c>
       <c r="S18">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2163,40 +2163,40 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>12419</v>
+        <v>11833</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
-        <v>59.65</v>
+        <v>59.91</v>
       </c>
       <c r="K19">
-        <v>671.76</v>
+        <v>640.0599999999999</v>
       </c>
       <c r="L19">
-        <v>3.66</v>
+        <v>3.86</v>
       </c>
       <c r="M19">
-        <v>208.2</v>
+        <v>197.51</v>
       </c>
       <c r="N19">
-        <v>11.26</v>
+        <v>10.68</v>
       </c>
       <c r="O19">
-        <v>762.77</v>
+        <v>763.1900000000001</v>
       </c>
       <c r="P19">
-        <v>12419</v>
+        <v>11833</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>8.17</v>
+        <v>11.36</v>
       </c>
       <c r="S19">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2222,40 +2222,40 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>11909</v>
+        <v>11933</v>
       </c>
       <c r="I20">
-        <v>96.45999999999999</v>
+        <v>100</v>
       </c>
       <c r="J20">
-        <v>59.66</v>
+        <v>59.82</v>
       </c>
       <c r="K20">
-        <v>644.1799999999999</v>
+        <v>645.47</v>
       </c>
       <c r="L20">
-        <v>3.69</v>
+        <v>3.75</v>
       </c>
       <c r="M20">
-        <v>199.61</v>
+        <v>199.48</v>
       </c>
       <c r="N20">
-        <v>10.8</v>
+        <v>10.79</v>
       </c>
       <c r="O20">
-        <v>735.97</v>
+        <v>747.97</v>
       </c>
       <c r="P20">
-        <v>11909</v>
+        <v>11933</v>
       </c>
       <c r="Q20">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>8.81</v>
+        <v>9.92</v>
       </c>
       <c r="S20">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2281,40 +2281,40 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>12480</v>
+        <v>11813</v>
       </c>
       <c r="I21">
         <v>100</v>
       </c>
       <c r="J21">
-        <v>59.33</v>
+        <v>59.14</v>
       </c>
       <c r="K21">
-        <v>675.0599999999999</v>
+        <v>638.98</v>
       </c>
       <c r="L21">
-        <v>3.7</v>
+        <v>3.91</v>
       </c>
       <c r="M21">
-        <v>210.35</v>
+        <v>199.75</v>
       </c>
       <c r="N21">
-        <v>11.38</v>
+        <v>10.8</v>
       </c>
       <c r="O21">
-        <v>779.22</v>
+        <v>781.11</v>
       </c>
       <c r="P21">
-        <v>12480</v>
+        <v>11813</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>8.720000000000001</v>
+        <v>10.35</v>
       </c>
       <c r="S21">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2340,40 +2340,40 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>10923</v>
+        <v>11563</v>
       </c>
       <c r="I22">
-        <v>95.41</v>
+        <v>100</v>
       </c>
       <c r="J22">
-        <v>59.74</v>
+        <v>59.93</v>
       </c>
       <c r="K22">
-        <v>590.84</v>
+        <v>625.46</v>
       </c>
       <c r="L22">
-        <v>4.81</v>
+        <v>4.8</v>
       </c>
       <c r="M22">
-        <v>182.84</v>
+        <v>192.94</v>
       </c>
       <c r="N22">
-        <v>9.890000000000001</v>
+        <v>10.44</v>
       </c>
       <c r="O22">
-        <v>879.0700000000001</v>
+        <v>926.3200000000001</v>
       </c>
       <c r="P22">
-        <v>10923</v>
+        <v>11563</v>
       </c>
       <c r="Q22">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>12.26</v>
+        <v>12.97</v>
       </c>
       <c r="S22">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2399,40 +2399,40 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>11977</v>
+        <v>11753</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
-        <v>59.44</v>
+        <v>59.82</v>
       </c>
       <c r="K23">
-        <v>647.85</v>
+        <v>635.74</v>
       </c>
       <c r="L23">
-        <v>4.68</v>
+        <v>4.93</v>
       </c>
       <c r="M23">
-        <v>201.5</v>
+        <v>196.47</v>
       </c>
       <c r="N23">
-        <v>10.9</v>
+        <v>10.63</v>
       </c>
       <c r="O23">
-        <v>942.9400000000001</v>
+        <v>967.8099999999999</v>
       </c>
       <c r="P23">
-        <v>11977</v>
+        <v>11753</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>15</v>
+        <v>12.17</v>
       </c>
       <c r="S23">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2458,40 +2458,40 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>11504</v>
+        <v>11711</v>
       </c>
       <c r="I24">
-        <v>97.98999999999999</v>
+        <v>100</v>
       </c>
       <c r="J24">
-        <v>59.51</v>
+        <v>59.27</v>
       </c>
       <c r="K24">
-        <v>622.27</v>
+        <v>633.47</v>
       </c>
       <c r="L24">
-        <v>4.97</v>
+        <v>4.88</v>
       </c>
       <c r="M24">
-        <v>193.31</v>
+        <v>197.59</v>
       </c>
       <c r="N24">
-        <v>10.46</v>
+        <v>10.69</v>
       </c>
       <c r="O24">
-        <v>960.49</v>
+        <v>964</v>
       </c>
       <c r="P24">
-        <v>11504</v>
+        <v>11711</v>
       </c>
       <c r="Q24">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>12.13</v>
+        <v>10.27</v>
       </c>
       <c r="S24">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2517,40 +2517,40 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>12327</v>
+        <v>11940</v>
       </c>
       <c r="I25">
         <v>100</v>
       </c>
       <c r="J25">
-        <v>59.84</v>
+        <v>59.57</v>
       </c>
       <c r="K25">
-        <v>666.79</v>
+        <v>645.85</v>
       </c>
       <c r="L25">
-        <v>4.59</v>
+        <v>4.79</v>
       </c>
       <c r="M25">
-        <v>206</v>
+        <v>200.44</v>
       </c>
       <c r="N25">
-        <v>11.14</v>
+        <v>10.84</v>
       </c>
       <c r="O25">
-        <v>945.02</v>
+        <v>959.17</v>
       </c>
       <c r="P25">
-        <v>12327</v>
+        <v>11940</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>12.75</v>
+        <v>10.66</v>
       </c>
       <c r="S25">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2576,40 +2576,40 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>12379</v>
+        <v>11177</v>
       </c>
       <c r="I26">
-        <v>100</v>
+        <v>99.14</v>
       </c>
       <c r="J26">
-        <v>59.94</v>
+        <v>59.26</v>
       </c>
       <c r="K26">
-        <v>669.6</v>
+        <v>604.58</v>
       </c>
       <c r="L26">
-        <v>4.57</v>
+        <v>5.02</v>
       </c>
       <c r="M26">
-        <v>206.52</v>
+        <v>188.61</v>
       </c>
       <c r="N26">
-        <v>11.17</v>
+        <v>10.2</v>
       </c>
       <c r="O26">
-        <v>944.26</v>
+        <v>947.54</v>
       </c>
       <c r="P26">
-        <v>12379</v>
+        <v>11177</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="R26">
-        <v>9.640000000000001</v>
+        <v>11.41</v>
       </c>
       <c r="S26">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2635,37 +2635,37 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>62121</v>
+        <v>56081</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
-        <v>59.77</v>
+        <v>59.1</v>
       </c>
       <c r="K27">
-        <v>33.06</v>
+        <v>29.84</v>
       </c>
       <c r="L27">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="M27">
-        <v>1039.33</v>
+        <v>948.92</v>
       </c>
       <c r="N27">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="O27">
-        <v>198.31</v>
+        <v>199.22</v>
       </c>
       <c r="P27">
-        <v>62121</v>
+        <v>56082</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2694,40 +2694,40 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>54087</v>
+        <v>58363</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
-        <v>59.2</v>
+        <v>60.03</v>
       </c>
       <c r="K28">
-        <v>28.78</v>
+        <v>31.06</v>
       </c>
       <c r="L28">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="M28">
-        <v>913.63</v>
+        <v>972.23</v>
       </c>
       <c r="N28">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="O28">
-        <v>198.43</v>
+        <v>199.24</v>
       </c>
       <c r="P28">
-        <v>54087</v>
+        <v>58363</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0.88</v>
+        <v>1.01</v>
       </c>
       <c r="S28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2753,7 +2753,7 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>61118</v>
+        <v>63066</v>
       </c>
       <c r="I29">
         <v>100</v>
@@ -2762,28 +2762,28 @@
         <v>59.27</v>
       </c>
       <c r="K29">
-        <v>32.52</v>
+        <v>33.56</v>
       </c>
       <c r="L29">
         <v>0.19</v>
       </c>
       <c r="M29">
-        <v>1031.18</v>
+        <v>1064.05</v>
       </c>
       <c r="N29">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="O29">
-        <v>198.34</v>
+        <v>199.32</v>
       </c>
       <c r="P29">
-        <v>61118</v>
+        <v>63066</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2812,37 +2812,37 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>48530</v>
+        <v>62059</v>
       </c>
       <c r="I30">
         <v>100</v>
       </c>
       <c r="J30">
-        <v>60.07</v>
+        <v>59.24</v>
       </c>
       <c r="K30">
-        <v>25.83</v>
+        <v>33.02</v>
       </c>
       <c r="L30">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="M30">
-        <v>807.89</v>
+        <v>1047.59</v>
       </c>
       <c r="N30">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O30">
-        <v>198.67</v>
+        <v>199.23</v>
       </c>
       <c r="P30">
-        <v>48530</v>
+        <v>62059</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2871,37 +2871,37 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>60065</v>
+        <v>58020</v>
       </c>
       <c r="I31">
         <v>100</v>
       </c>
       <c r="J31">
-        <v>59.24</v>
+        <v>59.16</v>
       </c>
       <c r="K31">
-        <v>31.96</v>
+        <v>30.88</v>
       </c>
       <c r="L31">
         <v>0.2</v>
       </c>
       <c r="M31">
-        <v>1013.93</v>
+        <v>980.73</v>
       </c>
       <c r="N31">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="O31">
-        <v>198.3</v>
+        <v>199.26</v>
       </c>
       <c r="P31">
-        <v>60065</v>
+        <v>58020</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2930,37 +2930,37 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>49069</v>
+        <v>67837</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
-        <v>59.5</v>
+        <v>59.17</v>
       </c>
       <c r="K32">
-        <v>26.11</v>
+        <v>36.1</v>
       </c>
       <c r="L32">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="M32">
-        <v>824.6900000000001</v>
+        <v>1146.48</v>
       </c>
       <c r="N32">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="O32">
-        <v>393.79</v>
+        <v>397.29</v>
       </c>
       <c r="P32">
-        <v>49069</v>
+        <v>67837</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2989,31 +2989,31 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>65400</v>
+        <v>59170</v>
       </c>
       <c r="I33">
         <v>100</v>
       </c>
       <c r="J33">
-        <v>60.07</v>
+        <v>59.1</v>
       </c>
       <c r="K33">
-        <v>34.8</v>
+        <v>31.49</v>
       </c>
       <c r="L33">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="M33">
-        <v>1088.73</v>
+        <v>1001.18</v>
       </c>
       <c r="N33">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="O33">
-        <v>394.27</v>
+        <v>397.32</v>
       </c>
       <c r="P33">
-        <v>65400</v>
+        <v>59170</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -3048,37 +3048,37 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <v>40855</v>
+        <v>42000</v>
       </c>
       <c r="I34">
         <v>100</v>
       </c>
       <c r="J34">
-        <v>60.28</v>
+        <v>59.87</v>
       </c>
       <c r="K34">
-        <v>8.710000000000001</v>
+        <v>7.77</v>
       </c>
       <c r="L34">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="M34">
-        <v>677.75</v>
+        <v>701.52</v>
       </c>
       <c r="N34">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O34">
-        <v>393.62</v>
+        <v>397.79</v>
       </c>
       <c r="P34">
-        <v>40808</v>
+        <v>41948</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>46.7</v>
+        <v>51.46</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3107,37 +3107,37 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>50686</v>
+        <v>68326</v>
       </c>
       <c r="I35">
         <v>100</v>
       </c>
       <c r="J35">
-        <v>59.66</v>
+        <v>59.48</v>
       </c>
       <c r="K35">
-        <v>12.91</v>
+        <v>17.4</v>
       </c>
       <c r="L35">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="M35">
-        <v>849.58</v>
+        <v>1148.72</v>
       </c>
       <c r="N35">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="O35">
-        <v>392.89</v>
+        <v>397.56</v>
       </c>
       <c r="P35">
-        <v>50686</v>
+        <v>68326</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -3166,37 +3166,37 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>61748</v>
+        <v>63389</v>
       </c>
       <c r="I36">
         <v>100</v>
       </c>
       <c r="J36">
-        <v>59.89</v>
+        <v>59.9</v>
       </c>
       <c r="K36">
-        <v>15.72</v>
+        <v>16.14</v>
       </c>
       <c r="L36">
         <v>0.38</v>
       </c>
       <c r="M36">
-        <v>1031.02</v>
+        <v>1058.25</v>
       </c>
       <c r="N36">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O36">
-        <v>393.18</v>
+        <v>397.65</v>
       </c>
       <c r="P36">
-        <v>61748</v>
+        <v>63389</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3225,40 +3225,40 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>49016</v>
+        <v>64071</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37">
-        <v>60</v>
+        <v>59.08</v>
       </c>
       <c r="K37">
-        <v>12.48</v>
+        <v>16.31</v>
       </c>
       <c r="L37">
-        <v>0.72</v>
+        <v>0.55</v>
       </c>
       <c r="M37">
-        <v>816.9299999999999</v>
+        <v>1084.48</v>
       </c>
       <c r="N37">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="O37">
-        <v>585.72</v>
+        <v>594.47</v>
       </c>
       <c r="P37">
-        <v>49016</v>
+        <v>64072</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>3.62</v>
+        <v>3.28</v>
       </c>
       <c r="S37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3284,40 +3284,40 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>52311</v>
+        <v>57081</v>
       </c>
       <c r="I38">
         <v>100</v>
       </c>
       <c r="J38">
-        <v>60.25</v>
+        <v>59.28</v>
       </c>
       <c r="K38">
-        <v>13.32</v>
+        <v>14.53</v>
       </c>
       <c r="L38">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="M38">
-        <v>868.23</v>
+        <v>962.9</v>
       </c>
       <c r="N38">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="O38">
-        <v>585.99</v>
+        <v>592.5599999999999</v>
       </c>
       <c r="P38">
-        <v>52311</v>
+        <v>57081</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>4.02</v>
+        <v>3.39</v>
       </c>
       <c r="S38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3343,37 +3343,37 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>51790</v>
+        <v>63457</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="J39">
-        <v>59.92</v>
+        <v>59.8</v>
       </c>
       <c r="K39">
-        <v>13.19</v>
+        <v>16.16</v>
       </c>
       <c r="L39">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M39">
-        <v>864.3200000000001</v>
+        <v>1061.15</v>
       </c>
       <c r="N39">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="O39">
-        <v>583.63</v>
+        <v>594.8</v>
       </c>
       <c r="P39">
-        <v>51790</v>
+        <v>63457</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3402,37 +3402,37 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>60748</v>
+        <v>60364</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
       <c r="J40">
-        <v>60</v>
+        <v>59.08</v>
       </c>
       <c r="K40">
-        <v>15.47</v>
+        <v>15.37</v>
       </c>
       <c r="L40">
         <v>0.58</v>
       </c>
       <c r="M40">
-        <v>1012.47</v>
+        <v>1021.73</v>
       </c>
       <c r="N40">
         <v>0.26</v>
       </c>
       <c r="O40">
-        <v>586</v>
+        <v>595.53</v>
       </c>
       <c r="P40">
-        <v>60748</v>
+        <v>60364</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>3.27</v>
+        <v>3.52</v>
       </c>
       <c r="S40">
         <v>0.01</v>
@@ -3461,7 +3461,7 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>49929</v>
+        <v>65683</v>
       </c>
       <c r="I41">
         <v>100</v>
@@ -3470,31 +3470,31 @@
         <v>60.08</v>
       </c>
       <c r="K41">
-        <v>12.71</v>
+        <v>16.72</v>
       </c>
       <c r="L41">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="M41">
-        <v>831.04</v>
+        <v>1093.26</v>
       </c>
       <c r="N41">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="O41">
-        <v>587.87</v>
+        <v>594.75</v>
       </c>
       <c r="P41">
-        <v>49929</v>
+        <v>65683</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>7.71</v>
+        <v>2.35</v>
       </c>
       <c r="S41">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3520,40 +3520,40 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>64016</v>
+        <v>58522</v>
       </c>
       <c r="I42">
         <v>100</v>
       </c>
       <c r="J42">
-        <v>60.44</v>
+        <v>59.19</v>
       </c>
       <c r="K42">
-        <v>16.3</v>
+        <v>14.9</v>
       </c>
       <c r="L42">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="M42">
-        <v>1059.17</v>
+        <v>988.71</v>
       </c>
       <c r="N42">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="O42">
-        <v>776.9400000000001</v>
+        <v>789.3</v>
       </c>
       <c r="P42">
-        <v>64016</v>
+        <v>58522</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>3.82</v>
+        <v>3.97</v>
       </c>
       <c r="S42">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3579,40 +3579,40 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>54795</v>
+        <v>61098</v>
       </c>
       <c r="I43">
         <v>100</v>
       </c>
       <c r="J43">
-        <v>60.31</v>
+        <v>59.64</v>
       </c>
       <c r="K43">
-        <v>13.95</v>
+        <v>15.56</v>
       </c>
       <c r="L43">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="M43">
-        <v>908.5599999999999</v>
+        <v>1024.45</v>
       </c>
       <c r="N43">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="O43">
-        <v>775.47</v>
+        <v>790.51</v>
       </c>
       <c r="P43">
-        <v>54795</v>
+        <v>61099</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>3.66</v>
+        <v>7.44</v>
       </c>
       <c r="S43">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3638,40 +3638,40 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>57072</v>
+        <v>59765</v>
       </c>
       <c r="I44">
         <v>100</v>
       </c>
       <c r="J44">
-        <v>59.92</v>
+        <v>59.95</v>
       </c>
       <c r="K44">
-        <v>14.53</v>
+        <v>15.22</v>
       </c>
       <c r="L44">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="M44">
-        <v>952.47</v>
+        <v>996.91</v>
       </c>
       <c r="N44">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="O44">
-        <v>775.3099999999999</v>
+        <v>790.75</v>
       </c>
       <c r="P44">
-        <v>57072</v>
+        <v>59766</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>7.64</v>
+        <v>3.48</v>
       </c>
       <c r="S44">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3697,37 +3697,37 @@
         <v>4</v>
       </c>
       <c r="H45">
-        <v>61579</v>
+        <v>63280</v>
       </c>
       <c r="I45">
         <v>100</v>
       </c>
       <c r="J45">
-        <v>60.2</v>
+        <v>59.97</v>
       </c>
       <c r="K45">
-        <v>15.68</v>
+        <v>16.11</v>
       </c>
       <c r="L45">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="M45">
-        <v>1022.91</v>
+        <v>1055.19</v>
       </c>
       <c r="N45">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O45">
-        <v>776.5</v>
+        <v>791.09</v>
       </c>
       <c r="P45">
-        <v>61579</v>
+        <v>63280</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>3.66</v>
+        <v>3.42</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -3756,37 +3756,37 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>57440</v>
+        <v>62217</v>
       </c>
       <c r="I46">
         <v>100</v>
       </c>
       <c r="J46">
-        <v>60.2</v>
+        <v>60.18</v>
       </c>
       <c r="K46">
-        <v>14.63</v>
+        <v>15.84</v>
       </c>
       <c r="L46">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="M46">
-        <v>954.15</v>
+        <v>1033.85</v>
       </c>
       <c r="N46">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="O46">
-        <v>773.27</v>
+        <v>788.78</v>
       </c>
       <c r="P46">
-        <v>57440</v>
+        <v>62217</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>7.68</v>
+        <v>15.42</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3815,37 +3815,37 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>59604</v>
+        <v>61599</v>
       </c>
       <c r="I47">
         <v>100</v>
       </c>
       <c r="J47">
-        <v>60.12</v>
+        <v>60.01</v>
       </c>
       <c r="K47">
-        <v>15.18</v>
+        <v>15.69</v>
       </c>
       <c r="L47">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="M47">
-        <v>991.42</v>
+        <v>1026.48</v>
       </c>
       <c r="N47">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="O47">
-        <v>962.63</v>
+        <v>984.4</v>
       </c>
       <c r="P47">
-        <v>59604</v>
+        <v>61599</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>9.09</v>
+        <v>4.4</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -3874,40 +3874,40 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>65820</v>
+        <v>59981</v>
       </c>
       <c r="I48">
         <v>100</v>
       </c>
       <c r="J48">
-        <v>60.22</v>
+        <v>60.07</v>
       </c>
       <c r="K48">
-        <v>16.76</v>
+        <v>15.27</v>
       </c>
       <c r="L48">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="M48">
-        <v>1092.99</v>
+        <v>998.52</v>
       </c>
       <c r="N48">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="O48">
-        <v>956.91</v>
+        <v>986.34</v>
       </c>
       <c r="P48">
-        <v>65820</v>
+        <v>59981</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="S48">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3933,40 +3933,40 @@
         <v>3</v>
       </c>
       <c r="H49">
-        <v>64824</v>
+        <v>59352</v>
       </c>
       <c r="I49">
         <v>100</v>
       </c>
       <c r="J49">
-        <v>60.43</v>
+        <v>59.2</v>
       </c>
       <c r="K49">
-        <v>16.51</v>
+        <v>15.11</v>
       </c>
       <c r="L49">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="M49">
-        <v>1072.71</v>
+        <v>1002.57</v>
       </c>
       <c r="N49">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="O49">
-        <v>960.22</v>
+        <v>986.05</v>
       </c>
       <c r="P49">
-        <v>64824</v>
+        <v>59352</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>4.46</v>
+        <v>7.47</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3992,37 +3992,37 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>70290</v>
+        <v>62310</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
       <c r="J50">
-        <v>61.05</v>
+        <v>60.11</v>
       </c>
       <c r="K50">
-        <v>17.9</v>
+        <v>15.87</v>
       </c>
       <c r="L50">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="M50">
-        <v>1151.35</v>
+        <v>1036.6</v>
       </c>
       <c r="N50">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="O50">
-        <v>957.64</v>
+        <v>986.16</v>
       </c>
       <c r="P50">
-        <v>70290</v>
+        <v>62310</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>4.64</v>
+        <v>7.61</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4051,37 +4051,37 @@
         <v>5</v>
       </c>
       <c r="H51">
-        <v>59328</v>
+        <v>59869</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51">
-        <v>60.75</v>
+        <v>60.08</v>
       </c>
       <c r="K51">
-        <v>15.11</v>
+        <v>15.24</v>
       </c>
       <c r="L51">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="M51">
-        <v>976.59</v>
+        <v>996.49</v>
       </c>
       <c r="N51">
         <v>0.25</v>
       </c>
       <c r="O51">
-        <v>955.45</v>
+        <v>983.8200000000001</v>
       </c>
       <c r="P51">
-        <v>59328</v>
+        <v>59869</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>10.13</v>
+        <v>10.46</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4110,37 +4110,37 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>37242</v>
+        <v>38709</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
       <c r="J52">
-        <v>60.05</v>
+        <v>59.65</v>
       </c>
       <c r="K52">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="L52">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="M52">
-        <v>620.1799999999999</v>
+        <v>648.9400000000001</v>
       </c>
       <c r="N52">
         <v>0.03</v>
       </c>
       <c r="O52">
-        <v>197.96</v>
+        <v>199.28</v>
       </c>
       <c r="P52">
-        <v>37242</v>
+        <v>38709</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>5.7</v>
+        <v>6.01</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -4169,37 +4169,37 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>42572</v>
+        <v>48026</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53">
-        <v>59.6</v>
+        <v>59.97</v>
       </c>
       <c r="K53">
-        <v>2.03</v>
+        <v>2.29</v>
       </c>
       <c r="L53">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="M53">
-        <v>714.3</v>
+        <v>800.83</v>
       </c>
       <c r="N53">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O53">
-        <v>198.23</v>
+        <v>199.29</v>
       </c>
       <c r="P53">
-        <v>42572</v>
+        <v>48026</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -4228,31 +4228,31 @@
         <v>3</v>
       </c>
       <c r="H54">
-        <v>42633</v>
+        <v>47552</v>
       </c>
       <c r="I54">
         <v>100</v>
       </c>
       <c r="J54">
-        <v>59.71</v>
+        <v>59.96</v>
       </c>
       <c r="K54">
-        <v>2.03</v>
+        <v>2.27</v>
       </c>
       <c r="L54">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="M54">
-        <v>714</v>
+        <v>793.0599999999999</v>
       </c>
       <c r="N54">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O54">
-        <v>197.99</v>
+        <v>198.13</v>
       </c>
       <c r="P54">
-        <v>42633</v>
+        <v>47552</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4287,40 +4287,40 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>39349</v>
+        <v>47611</v>
       </c>
       <c r="I55">
         <v>100</v>
       </c>
       <c r="J55">
-        <v>59.5</v>
+        <v>59.73</v>
       </c>
       <c r="K55">
-        <v>1.88</v>
+        <v>2.27</v>
       </c>
       <c r="L55">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="M55">
-        <v>661.33</v>
+        <v>797.1</v>
       </c>
       <c r="N55">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O55">
-        <v>198.37</v>
+        <v>199.37</v>
       </c>
       <c r="P55">
-        <v>39349</v>
+        <v>47611</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4346,40 +4346,40 @@
         <v>5</v>
       </c>
       <c r="H56">
-        <v>40656</v>
+        <v>43915</v>
       </c>
       <c r="I56">
         <v>100</v>
       </c>
       <c r="J56">
-        <v>59.95</v>
+        <v>59.19</v>
       </c>
       <c r="K56">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="L56">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="M56">
-        <v>678.17</v>
+        <v>741.9299999999999</v>
       </c>
       <c r="N56">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O56">
-        <v>198.29</v>
+        <v>199.19</v>
       </c>
       <c r="P56">
-        <v>40656</v>
+        <v>43915</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4405,37 +4405,37 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>42224</v>
+        <v>46466</v>
       </c>
       <c r="I57">
         <v>100</v>
       </c>
       <c r="J57">
-        <v>60.31</v>
+        <v>59.52</v>
       </c>
       <c r="K57">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="L57">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="M57">
-        <v>700.12</v>
+        <v>780.6799999999999</v>
       </c>
       <c r="N57">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O57">
-        <v>392.91</v>
+        <v>396.84</v>
       </c>
       <c r="P57">
-        <v>42224</v>
+        <v>46466</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>2.01</v>
+        <v>2.39</v>
       </c>
       <c r="S57">
         <v>0.01</v>
@@ -4464,37 +4464,37 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <v>40768</v>
+        <v>47766</v>
       </c>
       <c r="I58">
         <v>100</v>
       </c>
       <c r="J58">
-        <v>60.15</v>
+        <v>59.94</v>
       </c>
       <c r="K58">
-        <v>1.94</v>
+        <v>2.28</v>
       </c>
       <c r="L58">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="M58">
-        <v>677.77</v>
+        <v>796.9</v>
       </c>
       <c r="N58">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O58">
-        <v>393.19</v>
+        <v>398.14</v>
       </c>
       <c r="P58">
-        <v>40768</v>
+        <v>47766</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -4523,40 +4523,40 @@
         <v>3</v>
       </c>
       <c r="H59">
-        <v>42273</v>
+        <v>43393</v>
       </c>
       <c r="I59">
         <v>100</v>
       </c>
       <c r="J59">
-        <v>60.05</v>
+        <v>59.56</v>
       </c>
       <c r="K59">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L59">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="M59">
-        <v>703.96</v>
+        <v>728.5599999999999</v>
       </c>
       <c r="N59">
         <v>0.03</v>
       </c>
       <c r="O59">
-        <v>391.01</v>
+        <v>396.66</v>
       </c>
       <c r="P59">
-        <v>42273</v>
+        <v>43393</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>2.57</v>
+        <v>2.81</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4582,37 +4582,37 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>41233</v>
+        <v>47903</v>
       </c>
       <c r="I60">
         <v>100</v>
       </c>
       <c r="J60">
-        <v>60.5</v>
+        <v>59.98</v>
       </c>
       <c r="K60">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="L60">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="M60">
-        <v>681.54</v>
+        <v>798.65</v>
       </c>
       <c r="N60">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O60">
-        <v>391.01</v>
+        <v>396.33</v>
       </c>
       <c r="P60">
-        <v>41233</v>
+        <v>47903</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -4641,40 +4641,40 @@
         <v>5</v>
       </c>
       <c r="H61">
-        <v>40842</v>
+        <v>45711</v>
       </c>
       <c r="I61">
         <v>100</v>
       </c>
       <c r="J61">
-        <v>59.27</v>
+        <v>59.79</v>
       </c>
       <c r="K61">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="L61">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="M61">
-        <v>689.08</v>
+        <v>764.53</v>
       </c>
       <c r="N61">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O61">
-        <v>394.5</v>
+        <v>397.57</v>
       </c>
       <c r="P61">
-        <v>40842</v>
+        <v>45711</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>3.09</v>
+        <v>2.92</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4700,37 +4700,37 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>41951</v>
+        <v>44038</v>
       </c>
       <c r="I62">
         <v>100</v>
       </c>
       <c r="J62">
-        <v>60.35</v>
+        <v>59.34</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L62">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="M62">
-        <v>695.13</v>
+        <v>742.13</v>
       </c>
       <c r="N62">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O62">
-        <v>584.9400000000001</v>
+        <v>591.03</v>
       </c>
       <c r="P62">
-        <v>41951</v>
+        <v>44038</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
-        <v>3.84</v>
+        <v>5.44</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -4759,40 +4759,40 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <v>41792</v>
+        <v>44220</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63">
-        <v>59.5</v>
+        <v>59.94</v>
       </c>
       <c r="K63">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="L63">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="M63">
-        <v>702.39</v>
+        <v>737.74</v>
       </c>
       <c r="N63">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O63">
-        <v>587.92</v>
+        <v>583.03</v>
       </c>
       <c r="P63">
-        <v>41792</v>
+        <v>44220</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
-        <v>3.54</v>
+        <v>5.62</v>
       </c>
       <c r="S63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4818,40 +4818,40 @@
         <v>3</v>
       </c>
       <c r="H64">
-        <v>42083</v>
+        <v>45865</v>
       </c>
       <c r="I64">
         <v>100</v>
       </c>
       <c r="J64">
-        <v>60.02</v>
+        <v>59.22</v>
       </c>
       <c r="K64">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="L64">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="M64">
-        <v>701.15</v>
+        <v>774.48</v>
       </c>
       <c r="N64">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O64">
-        <v>588.22</v>
+        <v>594.02</v>
       </c>
       <c r="P64">
-        <v>42083</v>
+        <v>45865</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64">
-        <v>3.69</v>
+        <v>4.54</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4877,40 +4877,40 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>43092</v>
+        <v>44218</v>
       </c>
       <c r="I65">
         <v>100</v>
       </c>
       <c r="J65">
-        <v>60.3</v>
+        <v>59.59</v>
       </c>
       <c r="K65">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="L65">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="M65">
-        <v>714.63</v>
+        <v>742.04</v>
       </c>
       <c r="N65">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O65">
-        <v>585.29</v>
+        <v>592.74</v>
       </c>
       <c r="P65">
-        <v>43092</v>
+        <v>44218</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="S65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4936,37 +4936,37 @@
         <v>5</v>
       </c>
       <c r="H66">
-        <v>42841</v>
+        <v>46482</v>
       </c>
       <c r="I66">
         <v>100</v>
       </c>
       <c r="J66">
-        <v>60.11</v>
+        <v>59.89</v>
       </c>
       <c r="K66">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="L66">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="M66">
-        <v>712.71</v>
+        <v>776.12</v>
       </c>
       <c r="N66">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O66">
-        <v>587.8</v>
+        <v>591.78</v>
       </c>
       <c r="P66">
-        <v>42841</v>
+        <v>46482</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
-        <v>3.85</v>
+        <v>4.96</v>
       </c>
       <c r="S66">
         <v>0.01</v>
@@ -4995,37 +4995,37 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>47252</v>
+        <v>43021</v>
       </c>
       <c r="I67">
         <v>100</v>
       </c>
       <c r="J67">
-        <v>59.67</v>
+        <v>59.84</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L67">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="M67">
-        <v>791.89</v>
+        <v>718.9299999999999</v>
       </c>
       <c r="N67">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O67">
-        <v>781.02</v>
+        <v>790.22</v>
       </c>
       <c r="P67">
-        <v>47252</v>
+        <v>43021</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>4.51</v>
+        <v>5.46</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -5054,37 +5054,37 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>42273</v>
+        <v>47821</v>
       </c>
       <c r="I68">
         <v>100</v>
       </c>
       <c r="J68">
-        <v>60.18</v>
+        <v>59.59</v>
       </c>
       <c r="K68">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="L68">
-        <v>1.11</v>
+        <v>0.98</v>
       </c>
       <c r="M68">
-        <v>702.4400000000001</v>
+        <v>802.5</v>
       </c>
       <c r="N68">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O68">
-        <v>776.4</v>
+        <v>788.35</v>
       </c>
       <c r="P68">
-        <v>42273</v>
+        <v>47821</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>4.43</v>
+        <v>4.81</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -5113,40 +5113,40 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>41282</v>
+        <v>43917</v>
       </c>
       <c r="I69">
         <v>100</v>
       </c>
       <c r="J69">
-        <v>59.74</v>
+        <v>59.87</v>
       </c>
       <c r="K69">
-        <v>1.97</v>
+        <v>2.09</v>
       </c>
       <c r="L69">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="M69">
-        <v>691.03</v>
+        <v>733.54</v>
       </c>
       <c r="N69">
         <v>0.03</v>
       </c>
       <c r="O69">
-        <v>776.51</v>
+        <v>788.7</v>
       </c>
       <c r="P69">
-        <v>41282</v>
+        <v>43917</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>3.82</v>
+        <v>6.37</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5172,37 +5172,37 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>40928</v>
+        <v>44897</v>
       </c>
       <c r="I70">
         <v>100</v>
       </c>
       <c r="J70">
-        <v>59.93</v>
+        <v>59.3</v>
       </c>
       <c r="K70">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="L70">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="M70">
-        <v>682.9299999999999</v>
+        <v>757.12</v>
       </c>
       <c r="N70">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O70">
-        <v>776.8200000000001</v>
+        <v>787.89</v>
       </c>
       <c r="P70">
-        <v>40928</v>
+        <v>44897</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>4.37</v>
+        <v>5.66</v>
       </c>
       <c r="S70">
         <v>0.01</v>
@@ -5231,37 +5231,37 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>41402</v>
+        <v>45744</v>
       </c>
       <c r="I71">
         <v>100</v>
       </c>
       <c r="J71">
-        <v>60.01</v>
+        <v>59.8</v>
       </c>
       <c r="K71">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="L71">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="M71">
-        <v>689.92</v>
+        <v>764.95</v>
       </c>
       <c r="N71">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O71">
-        <v>771.92</v>
+        <v>789.26</v>
       </c>
       <c r="P71">
-        <v>41402</v>
+        <v>45744</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>4.51</v>
+        <v>5.47</v>
       </c>
       <c r="S71">
         <v>0.01</v>
@@ -5290,37 +5290,37 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>42085</v>
+        <v>38096</v>
       </c>
       <c r="I72">
         <v>100</v>
       </c>
       <c r="J72">
-        <v>60.59</v>
+        <v>59.6</v>
       </c>
       <c r="K72">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="L72">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="M72">
-        <v>694.59</v>
+        <v>639.1900000000001</v>
       </c>
       <c r="N72">
         <v>0.03</v>
       </c>
       <c r="O72">
-        <v>963.13</v>
+        <v>967.99</v>
       </c>
       <c r="P72">
-        <v>42086</v>
+        <v>38096</v>
       </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72">
-        <v>5.3</v>
+        <v>6.12</v>
       </c>
       <c r="S72">
         <v>0.02</v>
@@ -5349,37 +5349,37 @@
         <v>2</v>
       </c>
       <c r="H73">
-        <v>46126</v>
+        <v>41771</v>
       </c>
       <c r="I73">
         <v>100</v>
       </c>
       <c r="J73">
-        <v>60.08</v>
+        <v>59.14</v>
       </c>
       <c r="K73">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="L73">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="M73">
-        <v>767.74</v>
+        <v>706.3099999999999</v>
       </c>
       <c r="N73">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O73">
-        <v>971.39</v>
+        <v>983.5700000000001</v>
       </c>
       <c r="P73">
-        <v>46126</v>
+        <v>41771</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73">
-        <v>6.44</v>
+        <v>6.34</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -5408,37 +5408,37 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>41053</v>
+        <v>42685</v>
       </c>
       <c r="I74">
         <v>100</v>
       </c>
       <c r="J74">
-        <v>61.08</v>
+        <v>59.5</v>
       </c>
       <c r="K74">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="L74">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M74">
-        <v>672.12</v>
+        <v>717.39</v>
       </c>
       <c r="N74">
         <v>0.03</v>
       </c>
       <c r="O74">
-        <v>956.99</v>
+        <v>983.8099999999999</v>
       </c>
       <c r="P74">
-        <v>41053</v>
+        <v>42685</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>5.26</v>
+        <v>7.36</v>
       </c>
       <c r="S74">
         <v>0.01</v>
@@ -5467,37 +5467,37 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>41456</v>
+        <v>43813</v>
       </c>
       <c r="I75">
         <v>100</v>
       </c>
       <c r="J75">
-        <v>60.93</v>
+        <v>59.61</v>
       </c>
       <c r="K75">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="L75">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M75">
-        <v>680.39</v>
+        <v>734.99</v>
       </c>
       <c r="N75">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O75">
-        <v>959.91</v>
+        <v>981.16</v>
       </c>
       <c r="P75">
-        <v>41456</v>
+        <v>43813</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>6.64</v>
+        <v>6.65</v>
       </c>
       <c r="S75">
         <v>0.01</v>
@@ -5526,37 +5526,37 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>41076</v>
+        <v>43554</v>
       </c>
       <c r="I76">
         <v>100</v>
       </c>
       <c r="J76">
-        <v>60.25</v>
+        <v>59.77</v>
       </c>
       <c r="K76">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="L76">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M76">
-        <v>681.76</v>
+        <v>728.6900000000001</v>
       </c>
       <c r="N76">
         <v>0.03</v>
       </c>
       <c r="O76">
-        <v>954.1</v>
+        <v>982.29</v>
       </c>
       <c r="P76">
-        <v>41076</v>
+        <v>43555</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76">
-        <v>7.07</v>
+        <v>6.99</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -5585,37 +5585,37 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>42207</v>
+        <v>46582</v>
       </c>
       <c r="I77">
         <v>100</v>
       </c>
       <c r="J77">
-        <v>60.02</v>
+        <v>59.09</v>
       </c>
       <c r="K77">
-        <v>3.86</v>
+        <v>4.26</v>
       </c>
       <c r="L77">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="M77">
-        <v>703.22</v>
+        <v>788.3200000000001</v>
       </c>
       <c r="N77">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O77">
-        <v>198.03</v>
+        <v>199.09</v>
       </c>
       <c r="P77">
-        <v>42207</v>
+        <v>46582</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
-        <v>3.29</v>
+        <v>3.98</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -5644,40 +5644,40 @@
         <v>2</v>
       </c>
       <c r="H78">
-        <v>41598</v>
+        <v>47487</v>
       </c>
       <c r="I78">
         <v>100</v>
       </c>
       <c r="J78">
-        <v>59.17</v>
+        <v>59.34</v>
       </c>
       <c r="K78">
-        <v>3.81</v>
+        <v>4.35</v>
       </c>
       <c r="L78">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="M78">
-        <v>703.03</v>
+        <v>800.25</v>
       </c>
       <c r="N78">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O78">
-        <v>198.67</v>
+        <v>197.94</v>
       </c>
       <c r="P78">
-        <v>41598</v>
+        <v>47487</v>
       </c>
       <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78">
-        <v>3.36</v>
+        <v>5.13</v>
       </c>
       <c r="S78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5703,37 +5703,37 @@
         <v>3</v>
       </c>
       <c r="H79">
-        <v>42198</v>
+        <v>48506</v>
       </c>
       <c r="I79">
         <v>100</v>
       </c>
       <c r="J79">
-        <v>59.22</v>
+        <v>59.06</v>
       </c>
       <c r="K79">
-        <v>3.86</v>
+        <v>4.44</v>
       </c>
       <c r="L79">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="M79">
-        <v>712.5599999999999</v>
+        <v>821.3</v>
       </c>
       <c r="N79">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O79">
-        <v>198.29</v>
+        <v>199.26</v>
       </c>
       <c r="P79">
-        <v>42198</v>
+        <v>48507</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79">
-        <v>3.4</v>
+        <v>5.01</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -5762,37 +5762,37 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>39960</v>
+        <v>49406</v>
       </c>
       <c r="I80">
         <v>100</v>
       </c>
       <c r="J80">
-        <v>59.71</v>
+        <v>60</v>
       </c>
       <c r="K80">
-        <v>3.66</v>
+        <v>4.52</v>
       </c>
       <c r="L80">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="M80">
-        <v>669.23</v>
+        <v>823.4299999999999</v>
       </c>
       <c r="N80">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="O80">
-        <v>198.63</v>
+        <v>198.08</v>
       </c>
       <c r="P80">
-        <v>39960</v>
+        <v>49406</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>3.83</v>
+        <v>4.64</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -5821,37 +5821,37 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>41901</v>
+        <v>49702</v>
       </c>
       <c r="I81">
         <v>100</v>
       </c>
       <c r="J81">
-        <v>60.03</v>
+        <v>59.91</v>
       </c>
       <c r="K81">
-        <v>3.84</v>
+        <v>4.55</v>
       </c>
       <c r="L81">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="M81">
-        <v>698</v>
+        <v>829.61</v>
       </c>
       <c r="N81">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="O81">
-        <v>198.27</v>
+        <v>199.42</v>
       </c>
       <c r="P81">
-        <v>41901</v>
+        <v>49702</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>3.86</v>
+        <v>4.94</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -5880,40 +5880,40 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>41755</v>
+        <v>45180</v>
       </c>
       <c r="I82">
         <v>100</v>
       </c>
       <c r="J82">
-        <v>59.58</v>
+        <v>59.75</v>
       </c>
       <c r="K82">
-        <v>3.82</v>
+        <v>4.14</v>
       </c>
       <c r="L82">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="M82">
-        <v>700.8200000000001</v>
+        <v>756.15</v>
       </c>
       <c r="N82">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O82">
-        <v>394.18</v>
+        <v>397.29</v>
       </c>
       <c r="P82">
-        <v>41755</v>
+        <v>45180</v>
       </c>
       <c r="Q82">
         <v>0</v>
       </c>
       <c r="R82">
-        <v>3.72</v>
+        <v>5.6</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -5939,37 +5939,37 @@
         <v>2</v>
       </c>
       <c r="H83">
-        <v>43663</v>
+        <v>47430</v>
       </c>
       <c r="I83">
         <v>100</v>
       </c>
       <c r="J83">
-        <v>60.03</v>
+        <v>59.23</v>
       </c>
       <c r="K83">
-        <v>4</v>
+        <v>4.34</v>
       </c>
       <c r="L83">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="M83">
-        <v>727.35</v>
+        <v>800.78</v>
       </c>
       <c r="N83">
         <v>0.07000000000000001</v>
       </c>
       <c r="O83">
-        <v>394.42</v>
+        <v>391.26</v>
       </c>
       <c r="P83">
-        <v>43663</v>
+        <v>47430</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>4.34</v>
+        <v>5.98</v>
       </c>
       <c r="S83">
         <v>0.01</v>
@@ -5998,37 +5998,37 @@
         <v>3</v>
       </c>
       <c r="H84">
-        <v>43965</v>
+        <v>47414</v>
       </c>
       <c r="I84">
         <v>100</v>
       </c>
       <c r="J84">
-        <v>59.54</v>
+        <v>59.05</v>
       </c>
       <c r="K84">
-        <v>4.03</v>
+        <v>4.34</v>
       </c>
       <c r="L84">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="M84">
-        <v>738.41</v>
+        <v>802.95</v>
       </c>
       <c r="N84">
         <v>0.07000000000000001</v>
       </c>
       <c r="O84">
-        <v>393.62</v>
+        <v>390.43</v>
       </c>
       <c r="P84">
-        <v>43965</v>
+        <v>47414</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>3.13</v>
+        <v>5.93</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -6057,37 +6057,37 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>42565</v>
+        <v>47912</v>
       </c>
       <c r="I85">
         <v>100</v>
       </c>
       <c r="J85">
-        <v>59.3</v>
+        <v>60.06</v>
       </c>
       <c r="K85">
-        <v>3.9</v>
+        <v>4.39</v>
       </c>
       <c r="L85">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="M85">
-        <v>717.79</v>
+        <v>797.74</v>
       </c>
       <c r="N85">
         <v>0.07000000000000001</v>
       </c>
       <c r="O85">
-        <v>394.58</v>
+        <v>397.56</v>
       </c>
       <c r="P85">
-        <v>42565</v>
+        <v>47912</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>4.07</v>
+        <v>6.64</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -6116,37 +6116,37 @@
         <v>5</v>
       </c>
       <c r="H86">
-        <v>43400</v>
+        <v>47384</v>
       </c>
       <c r="I86">
         <v>100</v>
       </c>
       <c r="J86">
-        <v>60.12</v>
+        <v>59.64</v>
       </c>
       <c r="K86">
-        <v>3.97</v>
+        <v>4.34</v>
       </c>
       <c r="L86">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="M86">
-        <v>721.89</v>
+        <v>794.5</v>
       </c>
       <c r="N86">
         <v>0.07000000000000001</v>
       </c>
       <c r="O86">
-        <v>394.91</v>
+        <v>397.41</v>
       </c>
       <c r="P86">
-        <v>43400</v>
+        <v>47384</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86">
-        <v>4.35</v>
+        <v>6.28</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -6175,40 +6175,40 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>41812</v>
+        <v>47495</v>
       </c>
       <c r="I87">
         <v>100</v>
       </c>
       <c r="J87">
-        <v>59.58</v>
+        <v>59.42</v>
       </c>
       <c r="K87">
-        <v>3.83</v>
+        <v>4.35</v>
       </c>
       <c r="L87">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
       <c r="M87">
-        <v>701.78</v>
+        <v>799.3099999999999</v>
       </c>
       <c r="N87">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O87">
-        <v>585.97</v>
+        <v>594.77</v>
       </c>
       <c r="P87">
-        <v>41812</v>
+        <v>47495</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>4.7</v>
+        <v>7.28</v>
       </c>
       <c r="S87">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6234,37 +6234,37 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>41540</v>
+        <v>45789</v>
       </c>
       <c r="I88">
         <v>100</v>
       </c>
       <c r="J88">
-        <v>60.27</v>
+        <v>59.92</v>
       </c>
       <c r="K88">
-        <v>3.8</v>
+        <v>4.19</v>
       </c>
       <c r="L88">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="M88">
-        <v>689.23</v>
+        <v>764.17</v>
       </c>
       <c r="N88">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O88">
-        <v>585.15</v>
+        <v>582.24</v>
       </c>
       <c r="P88">
-        <v>41540</v>
+        <v>45791</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>4.81</v>
+        <v>6.92</v>
       </c>
       <c r="S88">
         <v>0.01</v>
@@ -6293,37 +6293,37 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>40180</v>
+        <v>48516</v>
       </c>
       <c r="I89">
         <v>100</v>
       </c>
       <c r="J89">
-        <v>60.27</v>
+        <v>60</v>
       </c>
       <c r="K89">
-        <v>3.68</v>
+        <v>4.44</v>
       </c>
       <c r="L89">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="M89">
-        <v>666.67</v>
+        <v>808.6</v>
       </c>
       <c r="N89">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O89">
-        <v>586.4</v>
+        <v>564.2</v>
       </c>
       <c r="P89">
-        <v>40180</v>
+        <v>48516</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89">
-        <v>6.31</v>
+        <v>7.82</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -6352,37 +6352,37 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>41926</v>
+        <v>48499</v>
       </c>
       <c r="I90">
         <v>100</v>
       </c>
       <c r="J90">
-        <v>60.01</v>
+        <v>59.7</v>
       </c>
       <c r="K90">
-        <v>3.84</v>
+        <v>4.44</v>
       </c>
       <c r="L90">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="M90">
-        <v>698.65</v>
+        <v>812.38</v>
       </c>
       <c r="N90">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O90">
-        <v>585.9</v>
+        <v>564.62</v>
       </c>
       <c r="P90">
-        <v>41926</v>
+        <v>48499</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>5.02</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -6411,40 +6411,40 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>42422</v>
+        <v>48861</v>
       </c>
       <c r="I91">
         <v>100</v>
       </c>
       <c r="J91">
-        <v>60.11</v>
+        <v>59.94</v>
       </c>
       <c r="K91">
-        <v>3.88</v>
+        <v>4.47</v>
       </c>
       <c r="L91">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="M91">
-        <v>705.74</v>
+        <v>815.17</v>
       </c>
       <c r="N91">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O91">
-        <v>585.02</v>
+        <v>590.55</v>
       </c>
       <c r="P91">
-        <v>42422</v>
+        <v>48861</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>4.83</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6470,40 +6470,40 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>37373</v>
+        <v>44059</v>
       </c>
       <c r="I92">
         <v>100</v>
       </c>
       <c r="J92">
-        <v>59.61</v>
+        <v>59.35</v>
       </c>
       <c r="K92">
-        <v>3.42</v>
+        <v>4.03</v>
       </c>
       <c r="L92">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="M92">
-        <v>626.96</v>
+        <v>742.36</v>
       </c>
       <c r="N92">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O92">
-        <v>779.55</v>
+        <v>786.88</v>
       </c>
       <c r="P92">
-        <v>37373</v>
+        <v>44059</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>7.9</v>
+        <v>8.19</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6529,40 +6529,40 @@
         <v>2</v>
       </c>
       <c r="H93">
-        <v>42443</v>
+        <v>47300</v>
       </c>
       <c r="I93">
         <v>100</v>
       </c>
       <c r="J93">
-        <v>60.21</v>
+        <v>59.71</v>
       </c>
       <c r="K93">
-        <v>3.89</v>
+        <v>4.33</v>
       </c>
       <c r="L93">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="M93">
-        <v>704.92</v>
+        <v>792.16</v>
       </c>
       <c r="N93">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O93">
-        <v>774.3099999999999</v>
+        <v>788.6900000000001</v>
       </c>
       <c r="P93">
-        <v>42443</v>
+        <v>47300</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>5.39</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6588,37 +6588,37 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>42178</v>
+        <v>47453</v>
       </c>
       <c r="I94">
         <v>100</v>
       </c>
       <c r="J94">
-        <v>60.76</v>
+        <v>60.02</v>
       </c>
       <c r="K94">
-        <v>3.86</v>
+        <v>4.34</v>
       </c>
       <c r="L94">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="M94">
-        <v>694.17</v>
+        <v>790.62</v>
       </c>
       <c r="N94">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O94">
-        <v>773.47</v>
+        <v>768.83</v>
       </c>
       <c r="P94">
-        <v>42178</v>
+        <v>47453</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94">
-        <v>5.83</v>
+        <v>8.01</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -6647,40 +6647,40 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>41720</v>
+        <v>47984</v>
       </c>
       <c r="I95">
         <v>100</v>
       </c>
       <c r="J95">
-        <v>60.54</v>
+        <v>59.73</v>
       </c>
       <c r="K95">
-        <v>3.82</v>
+        <v>4.39</v>
       </c>
       <c r="L95">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="M95">
-        <v>689.13</v>
+        <v>803.35</v>
       </c>
       <c r="N95">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O95">
-        <v>773.35</v>
+        <v>787.04</v>
       </c>
       <c r="P95">
-        <v>41720</v>
+        <v>47984</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95">
-        <v>5.68</v>
+        <v>8.26</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6706,37 +6706,37 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>43393</v>
+        <v>46621</v>
       </c>
       <c r="I96">
         <v>100</v>
       </c>
       <c r="J96">
-        <v>59.77</v>
+        <v>59.74</v>
       </c>
       <c r="K96">
-        <v>3.97</v>
+        <v>4.27</v>
       </c>
       <c r="L96">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="M96">
-        <v>726</v>
+        <v>780.4</v>
       </c>
       <c r="N96">
         <v>0.07000000000000001</v>
       </c>
       <c r="O96">
-        <v>774.86</v>
+        <v>785.41</v>
       </c>
       <c r="P96">
-        <v>43393</v>
+        <v>46621</v>
       </c>
       <c r="Q96">
         <v>0</v>
       </c>
       <c r="R96">
-        <v>5.4</v>
+        <v>7.63</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -6765,37 +6765,37 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>53246</v>
+        <v>47306</v>
       </c>
       <c r="I97">
         <v>100</v>
       </c>
       <c r="J97">
-        <v>59.81</v>
+        <v>59.64</v>
       </c>
       <c r="K97">
-        <v>4.87</v>
+        <v>4.33</v>
       </c>
       <c r="L97">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="M97">
-        <v>890.25</v>
+        <v>793.1900000000001</v>
       </c>
       <c r="N97">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O97">
-        <v>972.98</v>
+        <v>984.55</v>
       </c>
       <c r="P97">
-        <v>53246</v>
+        <v>47306</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>7.9</v>
+        <v>9.25</v>
       </c>
       <c r="S97">
         <v>0</v>
@@ -6824,37 +6824,37 @@
         <v>2</v>
       </c>
       <c r="H98">
-        <v>40757</v>
+        <v>48118</v>
       </c>
       <c r="I98">
         <v>100</v>
       </c>
       <c r="J98">
-        <v>60.16</v>
+        <v>59.57</v>
       </c>
       <c r="K98">
-        <v>3.73</v>
+        <v>4.41</v>
       </c>
       <c r="L98">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="M98">
-        <v>677.48</v>
+        <v>807.76</v>
       </c>
       <c r="N98">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O98">
-        <v>960.29</v>
+        <v>976.15</v>
       </c>
       <c r="P98">
-        <v>40757</v>
+        <v>48118</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
       <c r="R98">
-        <v>5.45</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -6883,40 +6883,40 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>41741</v>
+        <v>49323</v>
       </c>
       <c r="I99">
         <v>100</v>
       </c>
       <c r="J99">
-        <v>60.74</v>
+        <v>59.73</v>
       </c>
       <c r="K99">
-        <v>3.82</v>
+        <v>4.52</v>
       </c>
       <c r="L99">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="M99">
-        <v>687.21</v>
+        <v>825.77</v>
       </c>
       <c r="N99">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="O99">
-        <v>959.84</v>
+        <v>966.85</v>
       </c>
       <c r="P99">
-        <v>41741</v>
+        <v>49323</v>
       </c>
       <c r="Q99">
         <v>0</v>
       </c>
       <c r="R99">
-        <v>4.74</v>
+        <v>7.83</v>
       </c>
       <c r="S99">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -6942,40 +6942,40 @@
         <v>4</v>
       </c>
       <c r="H100">
-        <v>36175</v>
+        <v>37457</v>
       </c>
       <c r="I100">
         <v>100</v>
       </c>
       <c r="J100">
-        <v>60.01</v>
+        <v>59.51</v>
       </c>
       <c r="K100">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="L100">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="M100">
-        <v>602.8200000000001</v>
+        <v>629.42</v>
       </c>
       <c r="N100">
         <v>0.06</v>
       </c>
       <c r="O100">
-        <v>961.77</v>
+        <v>972.6900000000001</v>
       </c>
       <c r="P100">
-        <v>36175</v>
+        <v>37457</v>
       </c>
       <c r="Q100">
         <v>0</v>
       </c>
       <c r="R100">
-        <v>10.47</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="S100">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7001,40 +7001,40 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>36959</v>
+        <v>46124</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101">
-        <v>59.88</v>
+        <v>59.71</v>
       </c>
       <c r="K101">
-        <v>3.38</v>
+        <v>4.22</v>
       </c>
       <c r="L101">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="M101">
-        <v>617.22</v>
+        <v>772.47</v>
       </c>
       <c r="N101">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O101">
-        <v>962.78</v>
+        <v>938.77</v>
       </c>
       <c r="P101">
-        <v>36961</v>
+        <v>46124</v>
       </c>
       <c r="Q101">
         <v>0</v>
       </c>
       <c r="R101">
-        <v>10.62</v>
+        <v>10.5</v>
       </c>
       <c r="S101">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7051,13 +7051,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -7127,40 +7122,40 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>11822</v>
+        <v>11628.8</v>
       </c>
       <c r="F2">
-        <v>98.67999999999999</v>
+        <v>99.828</v>
       </c>
       <c r="G2">
-        <v>59.694</v>
+        <v>59.57000000000001</v>
       </c>
       <c r="H2">
-        <v>639.47</v>
+        <v>629.0200000000001</v>
       </c>
       <c r="I2">
-        <v>4.723999999999999</v>
+        <v>4.883999999999999</v>
       </c>
       <c r="J2">
-        <v>198.034</v>
+        <v>195.21</v>
       </c>
       <c r="K2">
-        <v>10.712</v>
+        <v>10.56</v>
       </c>
       <c r="L2">
-        <v>934.356</v>
+        <v>952.9680000000001</v>
       </c>
       <c r="M2">
-        <v>11822</v>
+        <v>11628.8</v>
       </c>
       <c r="N2">
-        <v>152.2</v>
+        <v>19.4</v>
       </c>
       <c r="O2">
-        <v>12.356</v>
+        <v>11.496</v>
       </c>
       <c r="P2">
-        <v>0.066</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7173,40 +7168,40 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>12377.4</v>
+        <v>12083.6</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <v>59.484</v>
+        <v>59.342</v>
       </c>
       <c r="H3">
-        <v>669.5119999999999</v>
+        <v>653.6220000000001</v>
       </c>
       <c r="I3">
-        <v>0.954</v>
+        <v>0.9719999999999999</v>
       </c>
       <c r="J3">
-        <v>208.078</v>
+        <v>203.63</v>
       </c>
       <c r="K3">
-        <v>11.254</v>
+        <v>11.014</v>
       </c>
       <c r="L3">
-        <v>198.4</v>
+        <v>197.718</v>
       </c>
       <c r="M3">
-        <v>12377.4</v>
+        <v>12083.6</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.698</v>
+        <v>2.908</v>
       </c>
       <c r="P3">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7219,40 +7214,40 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>12231.8</v>
+        <v>12024.2</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>59.452</v>
+        <v>59.624</v>
       </c>
       <c r="H4">
-        <v>661.6360000000001</v>
+        <v>650.4059999999999</v>
       </c>
       <c r="I4">
-        <v>1.898</v>
+        <v>1.94</v>
       </c>
       <c r="J4">
-        <v>205.726</v>
+        <v>201.672</v>
       </c>
       <c r="K4">
-        <v>11.128</v>
+        <v>10.908</v>
       </c>
       <c r="L4">
-        <v>390.16</v>
+        <v>391.298</v>
       </c>
       <c r="M4">
-        <v>12231.8</v>
+        <v>12024.2</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.368</v>
+        <v>5.26</v>
       </c>
       <c r="P4">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7265,40 +7260,40 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>12271</v>
+        <v>11831.2</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>59.71599999999999</v>
+        <v>59.452</v>
       </c>
       <c r="H5">
-        <v>663.756</v>
+        <v>639.966</v>
       </c>
       <c r="I5">
-        <v>2.81</v>
+        <v>2.922</v>
       </c>
       <c r="J5">
-        <v>205.482</v>
+        <v>199.002</v>
       </c>
       <c r="K5">
-        <v>11.114</v>
+        <v>10.766</v>
       </c>
       <c r="L5">
-        <v>577.414</v>
+        <v>581.646</v>
       </c>
       <c r="M5">
-        <v>12271</v>
+        <v>11831.2</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.638</v>
+        <v>8.406000000000001</v>
       </c>
       <c r="P5">
-        <v>0.042</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7311,40 +7306,40 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>12326.4</v>
+        <v>11946.2</v>
       </c>
       <c r="F6">
-        <v>99.292</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>59.588</v>
+        <v>59.746</v>
       </c>
       <c r="H6">
-        <v>666.754</v>
+        <v>646.1859999999999</v>
       </c>
       <c r="I6">
-        <v>3.684</v>
+        <v>3.828</v>
       </c>
       <c r="J6">
-        <v>206.864</v>
+        <v>199.948</v>
       </c>
       <c r="K6">
-        <v>11.19</v>
+        <v>10.814</v>
       </c>
       <c r="L6">
-        <v>762.21</v>
+        <v>765.35</v>
       </c>
       <c r="M6">
-        <v>12326.4</v>
+        <v>11946.2</v>
       </c>
       <c r="N6">
-        <v>87.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.01</v>
+        <v>10.952</v>
       </c>
       <c r="P6">
-        <v>0.126</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7359,37 +7354,37 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>63973.2</v>
+        <v>60622.2</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7">
-        <v>60.514</v>
+        <v>59.89400000000001</v>
       </c>
       <c r="H7">
-        <v>16.292</v>
+        <v>15.436</v>
       </c>
       <c r="I7">
-        <v>0.9119999999999999</v>
+        <v>0.974</v>
       </c>
       <c r="J7">
-        <v>1057.012</v>
+        <v>1012.132</v>
       </c>
       <c r="K7">
-        <v>0.268</v>
+        <v>0.256</v>
       </c>
       <c r="L7">
-        <v>958.5700000000001</v>
+        <v>985.354</v>
       </c>
       <c r="M7">
-        <v>63973.2</v>
+        <v>60622.2</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.924000000000001</v>
+        <v>7.468000000000001</v>
       </c>
       <c r="P7">
         <v>0.002</v>
@@ -7405,40 +7400,40 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>57184.2</v>
+        <v>59517.8</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <v>59.51000000000001</v>
+        <v>59.36</v>
       </c>
       <c r="H8">
-        <v>30.43</v>
+        <v>31.672</v>
       </c>
       <c r="I8">
-        <v>0.21</v>
+        <v>0.198</v>
       </c>
       <c r="J8">
-        <v>961.192</v>
+        <v>1002.704</v>
       </c>
       <c r="K8">
-        <v>0.512</v>
+        <v>0.534</v>
       </c>
       <c r="L8">
-        <v>198.41</v>
+        <v>199.254</v>
       </c>
       <c r="M8">
-        <v>57184.2</v>
+        <v>59518</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.924</v>
+        <v>0.976</v>
       </c>
       <c r="P8">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7451,37 +7446,37 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>53551.6</v>
+        <v>60144.4</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
-        <v>59.88</v>
+        <v>59.504</v>
       </c>
       <c r="H9">
-        <v>19.65</v>
+        <v>21.78</v>
       </c>
       <c r="I9">
-        <v>0.452</v>
+        <v>0.41</v>
       </c>
       <c r="J9">
-        <v>894.354</v>
+        <v>1011.23</v>
       </c>
       <c r="K9">
-        <v>0.328</v>
+        <v>0.366</v>
       </c>
       <c r="L9">
-        <v>393.55</v>
+        <v>397.522</v>
       </c>
       <c r="M9">
-        <v>53542.2</v>
+        <v>60134</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.826</v>
+        <v>11.676</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -7497,40 +7492,40 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>52758.8</v>
+        <v>62131.2</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10">
-        <v>60.05</v>
+        <v>59.464</v>
       </c>
       <c r="H10">
-        <v>13.434</v>
+        <v>15.818</v>
       </c>
       <c r="I10">
-        <v>0.6719999999999999</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="J10">
-        <v>878.598</v>
+        <v>1044.704</v>
       </c>
       <c r="K10">
-        <v>0.224</v>
+        <v>0.268</v>
       </c>
       <c r="L10">
-        <v>585.842</v>
+        <v>594.4219999999999</v>
       </c>
       <c r="M10">
-        <v>52758.8</v>
+        <v>62131.4</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.412</v>
+        <v>3.168</v>
       </c>
       <c r="P10">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7543,40 +7538,40 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>58980.4</v>
+        <v>60976.4</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11">
-        <v>60.214</v>
+        <v>59.786</v>
       </c>
       <c r="H11">
-        <v>15.018</v>
+        <v>15.526</v>
       </c>
       <c r="I11">
-        <v>0.792</v>
+        <v>0.774</v>
       </c>
       <c r="J11">
-        <v>979.452</v>
+        <v>1019.822</v>
       </c>
       <c r="K11">
-        <v>0.248</v>
+        <v>0.258</v>
       </c>
       <c r="L11">
-        <v>775.4979999999999</v>
+        <v>790.086</v>
       </c>
       <c r="M11">
-        <v>58980.4</v>
+        <v>60976.8</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.292</v>
+        <v>6.746</v>
       </c>
       <c r="P11">
-        <v>0.006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7591,40 +7586,40 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>41775.6</v>
+        <v>45665.6</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
       <c r="G12">
-        <v>60.12</v>
+        <v>59.63199999999999</v>
       </c>
       <c r="H12">
-        <v>3.822</v>
+        <v>4.182</v>
       </c>
       <c r="I12">
-        <v>1.414</v>
+        <v>1.278</v>
       </c>
       <c r="J12">
-        <v>694.996</v>
+        <v>765.722</v>
       </c>
       <c r="K12">
-        <v>0.064</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L12">
-        <v>963.5319999999999</v>
+        <v>967.802</v>
       </c>
       <c r="M12">
-        <v>41776</v>
+        <v>45665.6</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.836</v>
+        <v>9.198</v>
       </c>
       <c r="P12">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7637,40 +7632,40 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>41572.8</v>
+        <v>48336.6</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13">
-        <v>59.63</v>
+        <v>59.48</v>
       </c>
       <c r="H13">
-        <v>3.806</v>
+        <v>4.423999999999999</v>
       </c>
       <c r="I13">
-        <v>0.284</v>
+        <v>0.244</v>
       </c>
       <c r="J13">
-        <v>697.208</v>
+        <v>812.582</v>
       </c>
       <c r="K13">
-        <v>0.062</v>
+        <v>0.076</v>
       </c>
       <c r="L13">
-        <v>198.378</v>
+        <v>198.758</v>
       </c>
       <c r="M13">
-        <v>41572.8</v>
+        <v>48336.8</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.548</v>
+        <v>4.74</v>
       </c>
       <c r="P13">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7683,40 +7678,40 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>43069.6</v>
+        <v>47064</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14">
-        <v>59.714</v>
+        <v>59.54600000000001</v>
       </c>
       <c r="H14">
-        <v>3.944</v>
+        <v>4.31</v>
       </c>
       <c r="I14">
-        <v>0.546</v>
+        <v>0.502</v>
       </c>
       <c r="J14">
-        <v>721.2520000000001</v>
+        <v>790.424</v>
       </c>
       <c r="K14">
-        <v>0.068</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L14">
-        <v>394.342</v>
+        <v>394.79</v>
       </c>
       <c r="M14">
-        <v>43069.6</v>
+        <v>47064</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.922</v>
+        <v>6.086</v>
       </c>
       <c r="P14">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7729,37 +7724,37 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>41576</v>
+        <v>47832</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
       <c r="G15">
-        <v>60.048</v>
+        <v>59.79600000000001</v>
       </c>
       <c r="H15">
-        <v>3.806</v>
+        <v>4.378</v>
       </c>
       <c r="I15">
-        <v>0.8459999999999999</v>
+        <v>0.724</v>
       </c>
       <c r="J15">
-        <v>692.414</v>
+        <v>799.926</v>
       </c>
       <c r="K15">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L15">
-        <v>585.688</v>
+        <v>579.2760000000001</v>
       </c>
       <c r="M15">
-        <v>41576</v>
+        <v>47832.4</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.133999999999999</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="P15">
         <v>0.004</v>
@@ -7775,40 +7770,40 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>41421.4</v>
+        <v>46683.4</v>
       </c>
       <c r="F16">
         <v>100</v>
       </c>
       <c r="G16">
-        <v>60.178</v>
+        <v>59.71</v>
       </c>
       <c r="H16">
-        <v>3.792</v>
+        <v>4.272</v>
       </c>
       <c r="I16">
-        <v>1.128</v>
+        <v>1.004</v>
       </c>
       <c r="J16">
-        <v>688.236</v>
+        <v>781.778</v>
       </c>
       <c r="K16">
-        <v>0.062</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L16">
-        <v>775.1079999999999</v>
+        <v>783.37</v>
       </c>
       <c r="M16">
-        <v>41421.4</v>
+        <v>46683.4</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.04</v>
+        <v>8.162000000000001</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -7823,37 +7818,37 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>42359.2</v>
+        <v>41983.8</v>
       </c>
       <c r="F17">
         <v>100</v>
       </c>
       <c r="G17">
-        <v>60.586</v>
+        <v>59.524</v>
       </c>
       <c r="H17">
-        <v>2.022</v>
+        <v>2.004</v>
       </c>
       <c r="I17">
-        <v>1.378</v>
+        <v>1.39</v>
       </c>
       <c r="J17">
-        <v>699.3199999999999</v>
+        <v>705.3140000000001</v>
       </c>
       <c r="K17">
         <v>0.032</v>
       </c>
       <c r="L17">
-        <v>961.104</v>
+        <v>979.7639999999999</v>
       </c>
       <c r="M17">
-        <v>42359.4</v>
+        <v>41984</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.142</v>
+        <v>6.692</v>
       </c>
       <c r="P17">
         <v>0.008</v>
@@ -7869,37 +7864,37 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>40490.4</v>
+        <v>45162.6</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
       <c r="G18">
-        <v>59.762</v>
+        <v>59.7</v>
       </c>
       <c r="H18">
-        <v>1.932</v>
+        <v>2.154</v>
       </c>
       <c r="I18">
-        <v>0.294</v>
+        <v>0.266</v>
       </c>
       <c r="J18">
-        <v>677.596</v>
+        <v>756.3720000000001</v>
       </c>
       <c r="K18">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="L18">
-        <v>198.168</v>
+        <v>199.052</v>
       </c>
       <c r="M18">
-        <v>40490.4</v>
+        <v>45162.6</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.322</v>
+        <v>2.51</v>
       </c>
       <c r="P18">
         <v>0.002</v>
@@ -7915,40 +7910,40 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>41468</v>
+        <v>46247.8</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
       <c r="G19">
-        <v>60.056</v>
+        <v>59.758</v>
       </c>
       <c r="H19">
-        <v>1.978</v>
+        <v>2.206</v>
       </c>
       <c r="I19">
-        <v>0.5679999999999999</v>
+        <v>0.514</v>
       </c>
       <c r="J19">
-        <v>690.494</v>
+        <v>773.8639999999999</v>
       </c>
       <c r="K19">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="L19">
-        <v>392.524</v>
+        <v>397.108</v>
       </c>
       <c r="M19">
-        <v>41468</v>
+        <v>46247.8</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.684</v>
+        <v>2.948</v>
       </c>
       <c r="P19">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -7961,37 +7956,37 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>42351.8</v>
+        <v>44964.6</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20">
-        <v>60.056</v>
+        <v>59.596</v>
       </c>
       <c r="H20">
-        <v>2.018</v>
+        <v>2.146</v>
       </c>
       <c r="I20">
-        <v>0.8320000000000001</v>
+        <v>0.784</v>
       </c>
       <c r="J20">
-        <v>705.202</v>
+        <v>754.5020000000001</v>
       </c>
       <c r="K20">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L20">
-        <v>586.8340000000001</v>
+        <v>590.52</v>
       </c>
       <c r="M20">
-        <v>42351.8</v>
+        <v>44964.6</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.688</v>
+        <v>5.108</v>
       </c>
       <c r="P20">
         <v>0.006</v>
@@ -8007,40 +8002,40 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>42627.4</v>
+        <v>45080</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21">
-        <v>59.90599999999999</v>
+        <v>59.67999999999999</v>
       </c>
       <c r="H21">
-        <v>2.032</v>
+        <v>2.148</v>
       </c>
       <c r="I21">
-        <v>1.096</v>
+        <v>1.046</v>
       </c>
       <c r="J21">
-        <v>711.6420000000001</v>
+        <v>755.408</v>
       </c>
       <c r="K21">
-        <v>0.032</v>
+        <v>0.036</v>
       </c>
       <c r="L21">
-        <v>776.534</v>
+        <v>788.884</v>
       </c>
       <c r="M21">
-        <v>42627.4</v>
+        <v>45080</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.328</v>
+        <v>5.554</v>
       </c>
       <c r="P21">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
     </row>
   </sheetData>
@@ -8064,12 +8059,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -8133,40 +8127,40 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12205.72</v>
+        <v>11902.8</v>
       </c>
       <c r="E2">
-        <v>99.59440000000001</v>
+        <v>99.96559999999999</v>
       </c>
       <c r="F2">
-        <v>59.5868</v>
+        <v>59.5468</v>
       </c>
       <c r="G2">
-        <v>660.2256</v>
+        <v>643.84</v>
       </c>
       <c r="H2">
-        <v>2.814</v>
+        <v>2.9092</v>
       </c>
       <c r="I2">
-        <v>204.8368</v>
+        <v>199.8924</v>
       </c>
       <c r="J2">
-        <v>11.0796</v>
+        <v>10.8124</v>
       </c>
       <c r="K2">
-        <v>572.508</v>
+        <v>577.7959999999999</v>
       </c>
       <c r="L2">
-        <v>12205.72</v>
+        <v>11902.8</v>
       </c>
       <c r="M2">
-        <v>47.92</v>
+        <v>3.88</v>
       </c>
       <c r="N2">
-        <v>7.414</v>
+        <v>7.8044</v>
       </c>
       <c r="O2">
-        <v>0.058</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -8178,40 +8172,40 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>57289.64</v>
+        <v>60678.4</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
-        <v>60.0336</v>
+        <v>59.6016</v>
       </c>
       <c r="G3">
-        <v>18.9648</v>
+        <v>20.0464</v>
       </c>
       <c r="H3">
-        <v>0.6076</v>
+        <v>0.5852000000000001</v>
       </c>
       <c r="I3">
-        <v>954.1216000000001</v>
+        <v>1018.1184</v>
       </c>
       <c r="J3">
-        <v>0.316</v>
+        <v>0.3364</v>
       </c>
       <c r="K3">
-        <v>582.374</v>
+        <v>593.3276000000001</v>
       </c>
       <c r="L3">
-        <v>57287.76</v>
+        <v>60676.48</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.675599999999999</v>
+        <v>6.006800000000001</v>
       </c>
       <c r="O3">
-        <v>0.0036</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -8223,40 +8217,40 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>41883.08</v>
+        <v>47116.32</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>59.938</v>
+        <v>59.6328</v>
       </c>
       <c r="G4">
-        <v>3.834</v>
+        <v>4.3132</v>
       </c>
       <c r="H4">
-        <v>0.8436</v>
+        <v>0.7504</v>
       </c>
       <c r="I4">
-        <v>698.8212</v>
+        <v>790.0864</v>
       </c>
       <c r="J4">
-        <v>0.06320000000000001</v>
+        <v>0.07120000000000001</v>
       </c>
       <c r="K4">
-        <v>583.4096</v>
+        <v>584.7991999999999</v>
       </c>
       <c r="L4">
-        <v>41883.16</v>
+        <v>47116.44</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.296</v>
+        <v>7.1812</v>
       </c>
       <c r="O4">
-        <v>0.004</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -8268,40 +8262,40 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>41859.36</v>
+        <v>44687.76</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>60.0732</v>
+        <v>59.6516</v>
       </c>
       <c r="G5">
-        <v>1.9964</v>
+        <v>2.1316</v>
       </c>
       <c r="H5">
-        <v>0.8336</v>
+        <v>0.8</v>
       </c>
       <c r="I5">
-        <v>696.8508</v>
+        <v>749.092</v>
       </c>
       <c r="J5">
-        <v>0.0308</v>
+        <v>0.0368</v>
       </c>
       <c r="K5">
-        <v>583.0328</v>
+        <v>591.0656</v>
       </c>
       <c r="L5">
-        <v>41859.4</v>
+        <v>44687.8</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.8328</v>
+        <v>4.5624</v>
       </c>
       <c r="O5">
-        <v>0.0044</v>
+        <v>0.005600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8325,7 +8319,7 @@
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
@@ -8384,40 +8378,40 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>38309.45</v>
+        <v>41096.32</v>
       </c>
       <c r="D2">
-        <v>99.8986</v>
+        <v>99.9914</v>
       </c>
       <c r="E2">
-        <v>59.9079</v>
+        <v>59.6082</v>
       </c>
       <c r="F2">
-        <v>171.2552</v>
+        <v>167.5828</v>
       </c>
       <c r="G2">
-        <v>1.2747</v>
+        <v>1.2612</v>
       </c>
       <c r="H2">
-        <v>638.6576</v>
+        <v>689.2973</v>
       </c>
       <c r="I2">
-        <v>2.8724</v>
+        <v>2.8142</v>
       </c>
       <c r="J2">
-        <v>580.3311</v>
+        <v>586.7471</v>
       </c>
       <c r="K2">
-        <v>38309.01</v>
+        <v>41095.88</v>
       </c>
       <c r="L2">
-        <v>11.98</v>
+        <v>0.97</v>
       </c>
       <c r="M2">
-        <v>5.554600000000001</v>
+        <v>6.3887</v>
       </c>
       <c r="N2">
-        <v>0.0175</v>
+        <v>0.0183</v>
       </c>
     </row>
   </sheetData>
